--- a/GRBANABUIU_PERENE.xlsx
+++ b/GRBANABUIU_PERENE.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="16">
   <si>
     <t xml:space="preserve">Reservatório Monitorado</t>
   </si>
@@ -430,8 +430,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A109" activeCellId="0" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1967,10 +1967,10 @@
         <v>14</v>
       </c>
       <c r="B103" s="7" t="n">
-        <v>45510</v>
+        <v>45572</v>
       </c>
       <c r="C103" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -1981,10 +1981,10 @@
         <v>14</v>
       </c>
       <c r="B104" s="7" t="n">
-        <v>45511</v>
+        <v>45573</v>
       </c>
       <c r="C104" s="8" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -1995,10 +1995,10 @@
         <v>14</v>
       </c>
       <c r="B105" s="7" t="n">
-        <v>45512</v>
+        <v>45636</v>
       </c>
       <c r="C105" s="8" t="n">
-        <v>212</v>
+        <v>968</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -2009,10 +2009,10 @@
         <v>14</v>
       </c>
       <c r="B106" s="7" t="n">
-        <v>45513</v>
+        <v>45637</v>
       </c>
       <c r="C106" s="8" t="n">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
@@ -2023,10 +2023,10 @@
         <v>14</v>
       </c>
       <c r="B107" s="7" t="n">
-        <v>45514</v>
+        <v>45771</v>
       </c>
       <c r="C107" s="8" t="n">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -2037,3693 +2037,2115 @@
         <v>14</v>
       </c>
       <c r="B108" s="7" t="n">
-        <v>45515</v>
+        <v>45772</v>
       </c>
       <c r="C108" s="8" t="n">
-        <v>212</v>
+        <v>455</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B109" s="7" t="n">
-        <v>45516</v>
-      </c>
-      <c r="C109" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A109" s="6"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" s="7" t="n">
-        <v>45517</v>
-      </c>
-      <c r="C110" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A110" s="6"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B111" s="7" t="n">
-        <v>45518</v>
-      </c>
-      <c r="C111" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A111" s="6"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B112" s="7" t="n">
-        <v>45519</v>
-      </c>
-      <c r="C112" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A112" s="6"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B113" s="7" t="n">
-        <v>45520</v>
-      </c>
-      <c r="C113" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A113" s="6"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B114" s="7" t="n">
-        <v>45521</v>
-      </c>
-      <c r="C114" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A114" s="6"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B115" s="7" t="n">
-        <v>45522</v>
-      </c>
-      <c r="C115" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A115" s="6"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B116" s="7" t="n">
-        <v>45523</v>
-      </c>
-      <c r="C116" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A116" s="6"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B117" s="7" t="n">
-        <v>45524</v>
-      </c>
-      <c r="C117" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A117" s="6"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B118" s="7" t="n">
-        <v>45525</v>
-      </c>
-      <c r="C118" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A118" s="6"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B119" s="7" t="n">
-        <v>45526</v>
-      </c>
-      <c r="C119" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A119" s="6"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B120" s="7" t="n">
-        <v>45527</v>
-      </c>
-      <c r="C120" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A120" s="6"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B121" s="7" t="n">
-        <v>45528</v>
-      </c>
-      <c r="C121" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A121" s="6"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B122" s="7" t="n">
-        <v>45529</v>
-      </c>
-      <c r="C122" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A122" s="6"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B123" s="7" t="n">
-        <v>45530</v>
-      </c>
-      <c r="C123" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A123" s="6"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B124" s="7" t="n">
-        <v>45531</v>
-      </c>
-      <c r="C124" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A124" s="6"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B125" s="7" t="n">
-        <v>45532</v>
-      </c>
-      <c r="C125" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A125" s="6"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B126" s="7" t="n">
-        <v>45533</v>
-      </c>
-      <c r="C126" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A126" s="6"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B127" s="7" t="n">
-        <v>45534</v>
-      </c>
-      <c r="C127" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A127" s="6"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B128" s="7" t="n">
-        <v>45535</v>
-      </c>
-      <c r="C128" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A128" s="6"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B129" s="7" t="n">
-        <v>45536</v>
-      </c>
-      <c r="C129" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A129" s="6"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B130" s="7" t="n">
-        <v>45537</v>
-      </c>
-      <c r="C130" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A130" s="6"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B131" s="7" t="n">
-        <v>45538</v>
-      </c>
-      <c r="C131" s="8" t="n">
-        <v>212</v>
-      </c>
+      <c r="A131" s="6"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B132" s="7" t="n">
-        <v>45539</v>
-      </c>
-      <c r="C132" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A132" s="6"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B133" s="7" t="n">
-        <v>45540</v>
-      </c>
-      <c r="C133" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A133" s="6"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B134" s="7" t="n">
-        <v>45541</v>
-      </c>
-      <c r="C134" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A134" s="6"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B135" s="7" t="n">
-        <v>45542</v>
-      </c>
-      <c r="C135" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A135" s="6"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B136" s="7" t="n">
-        <v>45543</v>
-      </c>
-      <c r="C136" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A136" s="6"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B137" s="7" t="n">
-        <v>45544</v>
-      </c>
-      <c r="C137" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A137" s="6"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B138" s="7" t="n">
-        <v>45545</v>
-      </c>
-      <c r="C138" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A138" s="6"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B139" s="7" t="n">
-        <v>45546</v>
-      </c>
-      <c r="C139" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A139" s="6"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B140" s="7" t="n">
-        <v>45547</v>
-      </c>
-      <c r="C140" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A140" s="6"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B141" s="7" t="n">
-        <v>45548</v>
-      </c>
-      <c r="C141" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A141" s="6"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B142" s="7" t="n">
-        <v>45549</v>
-      </c>
-      <c r="C142" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A142" s="6"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B143" s="7" t="n">
-        <v>45550</v>
-      </c>
-      <c r="C143" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A143" s="6"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B144" s="7" t="n">
-        <v>45551</v>
-      </c>
-      <c r="C144" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A144" s="6"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B145" s="7" t="n">
-        <v>45552</v>
-      </c>
-      <c r="C145" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A145" s="6"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B146" s="7" t="n">
-        <v>45553</v>
-      </c>
-      <c r="C146" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A146" s="6"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B147" s="7" t="n">
-        <v>45554</v>
-      </c>
-      <c r="C147" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A147" s="6"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B148" s="7" t="n">
-        <v>45555</v>
-      </c>
-      <c r="C148" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A148" s="6"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B149" s="7" t="n">
-        <v>45556</v>
-      </c>
-      <c r="C149" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A149" s="6"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B150" s="7" t="n">
-        <v>45557</v>
-      </c>
-      <c r="C150" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A150" s="6"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B151" s="7" t="n">
-        <v>45558</v>
-      </c>
-      <c r="C151" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A151" s="6"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B152" s="7" t="n">
-        <v>45559</v>
-      </c>
-      <c r="C152" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A152" s="6"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B153" s="7" t="n">
-        <v>45560</v>
-      </c>
-      <c r="C153" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A153" s="6"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B154" s="7" t="n">
-        <v>45561</v>
-      </c>
-      <c r="C154" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A154" s="6"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B155" s="7" t="n">
-        <v>45562</v>
-      </c>
-      <c r="C155" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A155" s="6"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B156" s="7" t="n">
-        <v>45563</v>
-      </c>
-      <c r="C156" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A156" s="6"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B157" s="7" t="n">
-        <v>45564</v>
-      </c>
-      <c r="C157" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A157" s="6"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B158" s="7" t="n">
-        <v>45565</v>
-      </c>
-      <c r="C158" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A158" s="6"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B159" s="7" t="n">
-        <v>45566</v>
-      </c>
-      <c r="C159" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A159" s="6"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B160" s="7" t="n">
-        <v>45567</v>
-      </c>
-      <c r="C160" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A160" s="6"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B161" s="7" t="n">
-        <v>45568</v>
-      </c>
-      <c r="C161" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A161" s="6"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B162" s="7" t="n">
-        <v>45569</v>
-      </c>
-      <c r="C162" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A162" s="6"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B163" s="7" t="n">
-        <v>45570</v>
-      </c>
-      <c r="C163" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A163" s="6"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B164" s="7" t="n">
-        <v>45571</v>
-      </c>
-      <c r="C164" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A164" s="6"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="9"/>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B165" s="7" t="n">
-        <v>45572</v>
-      </c>
-      <c r="C165" s="8" t="n">
-        <v>879</v>
-      </c>
+      <c r="A165" s="6"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="9"/>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B166" s="7" t="n">
-        <v>45573</v>
-      </c>
-      <c r="C166" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A166" s="6"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="9"/>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B167" s="7" t="n">
-        <v>45574</v>
-      </c>
-      <c r="C167" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A167" s="6"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B168" s="7" t="n">
-        <v>45575</v>
-      </c>
-      <c r="C168" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A168" s="6"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B169" s="7" t="n">
-        <v>45576</v>
-      </c>
-      <c r="C169" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A169" s="6"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B170" s="7" t="n">
-        <v>45577</v>
-      </c>
-      <c r="C170" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A170" s="6"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B171" s="7" t="n">
-        <v>45578</v>
-      </c>
-      <c r="C171" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A171" s="6"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B172" s="7" t="n">
-        <v>45579</v>
-      </c>
-      <c r="C172" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A172" s="6"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B173" s="7" t="n">
-        <v>45580</v>
-      </c>
-      <c r="C173" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A173" s="6"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B174" s="7" t="n">
-        <v>45581</v>
-      </c>
-      <c r="C174" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A174" s="6"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B175" s="7" t="n">
-        <v>45582</v>
-      </c>
-      <c r="C175" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A175" s="6"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B176" s="7" t="n">
-        <v>45583</v>
-      </c>
-      <c r="C176" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A176" s="6"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B177" s="7" t="n">
-        <v>45584</v>
-      </c>
-      <c r="C177" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A177" s="6"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="9"/>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B178" s="7" t="n">
-        <v>45585</v>
-      </c>
-      <c r="C178" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A178" s="6"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="9"/>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B179" s="7" t="n">
-        <v>45586</v>
-      </c>
-      <c r="C179" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A179" s="6"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B180" s="7" t="n">
-        <v>45587</v>
-      </c>
-      <c r="C180" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A180" s="6"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="9"/>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B181" s="7" t="n">
-        <v>45588</v>
-      </c>
-      <c r="C181" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A181" s="6"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="9"/>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B182" s="7" t="n">
-        <v>45589</v>
-      </c>
-      <c r="C182" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A182" s="6"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="9"/>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B183" s="7" t="n">
-        <v>45590</v>
-      </c>
-      <c r="C183" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A183" s="6"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="9"/>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B184" s="7" t="n">
-        <v>45591</v>
-      </c>
-      <c r="C184" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A184" s="6"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="9"/>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B185" s="7" t="n">
-        <v>45592</v>
-      </c>
-      <c r="C185" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A185" s="6"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B186" s="7" t="n">
-        <v>45593</v>
-      </c>
-      <c r="C186" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A186" s="6"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="9"/>
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B187" s="7" t="n">
-        <v>45594</v>
-      </c>
-      <c r="C187" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A187" s="6"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B188" s="7" t="n">
-        <v>45595</v>
-      </c>
-      <c r="C188" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A188" s="6"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="9"/>
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B189" s="7" t="n">
-        <v>45596</v>
-      </c>
-      <c r="C189" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A189" s="6"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="9"/>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B190" s="7" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C190" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A190" s="6"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="9"/>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B191" s="7" t="n">
-        <v>45598</v>
-      </c>
-      <c r="C191" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A191" s="6"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="9"/>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B192" s="7" t="n">
-        <v>45599</v>
-      </c>
-      <c r="C192" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A192" s="6"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="9"/>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B193" s="7" t="n">
-        <v>45600</v>
-      </c>
-      <c r="C193" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A193" s="6"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="9"/>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B194" s="7" t="n">
-        <v>45601</v>
-      </c>
-      <c r="C194" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A194" s="6"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="9"/>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B195" s="7" t="n">
-        <v>45602</v>
-      </c>
-      <c r="C195" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A195" s="6"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="9"/>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B196" s="7" t="n">
-        <v>45603</v>
-      </c>
-      <c r="C196" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A196" s="6"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="9"/>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B197" s="7" t="n">
-        <v>45604</v>
-      </c>
-      <c r="C197" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A197" s="6"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="9"/>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B198" s="7" t="n">
-        <v>45605</v>
-      </c>
-      <c r="C198" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A198" s="6"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="9"/>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B199" s="7" t="n">
-        <v>45606</v>
-      </c>
-      <c r="C199" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A199" s="6"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="9"/>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B200" s="7" t="n">
-        <v>45607</v>
-      </c>
-      <c r="C200" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A200" s="6"/>
+      <c r="B200" s="7"/>
+      <c r="C200" s="9"/>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B201" s="7" t="n">
-        <v>45608</v>
-      </c>
-      <c r="C201" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A201" s="6"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="9"/>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B202" s="7" t="n">
-        <v>45609</v>
-      </c>
-      <c r="C202" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A202" s="6"/>
+      <c r="B202" s="7"/>
+      <c r="C202" s="9"/>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B203" s="7" t="n">
-        <v>45610</v>
-      </c>
-      <c r="C203" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A203" s="6"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="9"/>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B204" s="7" t="n">
-        <v>45611</v>
-      </c>
-      <c r="C204" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A204" s="6"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="9"/>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B205" s="7" t="n">
-        <v>45612</v>
-      </c>
-      <c r="C205" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A205" s="6"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="9"/>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B206" s="7" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C206" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A206" s="6"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="9"/>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B207" s="7" t="n">
-        <v>45614</v>
-      </c>
-      <c r="C207" s="8" t="n">
-        <v>215</v>
-      </c>
+      <c r="A207" s="6"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="9"/>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B208" s="7" t="n">
-        <v>45615</v>
-      </c>
-      <c r="C208" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A208" s="6"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="9"/>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B209" s="7" t="n">
-        <v>45616</v>
-      </c>
-      <c r="C209" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A209" s="6"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="9"/>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B210" s="7" t="n">
-        <v>45617</v>
-      </c>
-      <c r="C210" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A210" s="6"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="9"/>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B211" s="7" t="n">
-        <v>45618</v>
-      </c>
-      <c r="C211" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A211" s="6"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="9"/>
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B212" s="7" t="n">
-        <v>45619</v>
-      </c>
-      <c r="C212" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A212" s="6"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="9"/>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B213" s="7" t="n">
-        <v>45620</v>
-      </c>
-      <c r="C213" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A213" s="6"/>
+      <c r="B213" s="7"/>
+      <c r="C213" s="9"/>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
       <c r="F213" s="9"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B214" s="7" t="n">
-        <v>45621</v>
-      </c>
-      <c r="C214" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A214" s="6"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="9"/>
       <c r="D214" s="9"/>
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B215" s="7" t="n">
-        <v>45622</v>
-      </c>
-      <c r="C215" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A215" s="6"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="9"/>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
       <c r="F215" s="9"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B216" s="7" t="n">
-        <v>45623</v>
-      </c>
-      <c r="C216" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A216" s="6"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="9"/>
       <c r="D216" s="9"/>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B217" s="7" t="n">
-        <v>45624</v>
-      </c>
-      <c r="C217" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A217" s="6"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="9"/>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B218" s="7" t="n">
-        <v>45625</v>
-      </c>
-      <c r="C218" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A218" s="6"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="9"/>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B219" s="7" t="n">
-        <v>45626</v>
-      </c>
-      <c r="C219" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A219" s="6"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="9"/>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B220" s="7" t="n">
-        <v>45627</v>
-      </c>
-      <c r="C220" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A220" s="6"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="9"/>
       <c r="D220" s="9"/>
       <c r="E220" s="9"/>
       <c r="F220" s="9"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B221" s="7" t="n">
-        <v>45628</v>
-      </c>
-      <c r="C221" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A221" s="6"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="9"/>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B222" s="7" t="n">
-        <v>45629</v>
-      </c>
-      <c r="C222" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A222" s="6"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="9"/>
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B223" s="7" t="n">
-        <v>45630</v>
-      </c>
-      <c r="C223" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A223" s="6"/>
+      <c r="B223" s="7"/>
+      <c r="C223" s="9"/>
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B224" s="7" t="n">
-        <v>45631</v>
-      </c>
-      <c r="C224" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A224" s="6"/>
+      <c r="B224" s="7"/>
+      <c r="C224" s="9"/>
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
       <c r="F224" s="9"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B225" s="7" t="n">
-        <v>45632</v>
-      </c>
-      <c r="C225" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A225" s="6"/>
+      <c r="B225" s="7"/>
+      <c r="C225" s="9"/>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
       <c r="F225" s="9"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B226" s="7" t="n">
-        <v>45633</v>
-      </c>
-      <c r="C226" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A226" s="6"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="9"/>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
       <c r="F226" s="9"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B227" s="7" t="n">
-        <v>45634</v>
-      </c>
-      <c r="C227" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A227" s="6"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="9"/>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
       <c r="F227" s="9"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B228" s="7" t="n">
-        <v>45635</v>
-      </c>
-      <c r="C228" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A228" s="6"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="9"/>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
       <c r="F228" s="9"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B229" s="7" t="n">
-        <v>45636</v>
-      </c>
-      <c r="C229" s="8" t="n">
-        <v>968</v>
-      </c>
+      <c r="A229" s="6"/>
+      <c r="B229" s="7"/>
+      <c r="C229" s="9"/>
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>
       <c r="F229" s="9"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B230" s="7" t="n">
-        <v>45637</v>
-      </c>
-      <c r="C230" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A230" s="6"/>
+      <c r="B230" s="7"/>
+      <c r="C230" s="9"/>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
       <c r="F230" s="9"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B231" s="7" t="n">
-        <v>45638</v>
-      </c>
-      <c r="C231" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A231" s="6"/>
+      <c r="B231" s="7"/>
+      <c r="C231" s="9"/>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
       <c r="F231" s="9"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B232" s="7" t="n">
-        <v>45639</v>
-      </c>
-      <c r="C232" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A232" s="6"/>
+      <c r="B232" s="7"/>
+      <c r="C232" s="9"/>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
       <c r="F232" s="9"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B233" s="7" t="n">
-        <v>45640</v>
-      </c>
-      <c r="C233" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A233" s="6"/>
+      <c r="B233" s="7"/>
+      <c r="C233" s="9"/>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B234" s="7" t="n">
-        <v>45641</v>
-      </c>
-      <c r="C234" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A234" s="6"/>
+      <c r="B234" s="7"/>
+      <c r="C234" s="9"/>
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
       <c r="F234" s="9"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B235" s="7" t="n">
-        <v>45642</v>
-      </c>
-      <c r="C235" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A235" s="6"/>
+      <c r="B235" s="7"/>
+      <c r="C235" s="9"/>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
       <c r="F235" s="9"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B236" s="7" t="n">
-        <v>45643</v>
-      </c>
-      <c r="C236" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A236" s="6"/>
+      <c r="B236" s="7"/>
+      <c r="C236" s="9"/>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
       <c r="F236" s="9"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B237" s="7" t="n">
-        <v>45644</v>
-      </c>
-      <c r="C237" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A237" s="6"/>
+      <c r="B237" s="7"/>
+      <c r="C237" s="9"/>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B238" s="7" t="n">
-        <v>45645</v>
-      </c>
-      <c r="C238" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A238" s="6"/>
+      <c r="B238" s="7"/>
+      <c r="C238" s="9"/>
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B239" s="7" t="n">
-        <v>45646</v>
-      </c>
-      <c r="C239" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A239" s="6"/>
+      <c r="B239" s="7"/>
+      <c r="C239" s="9"/>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B240" s="7" t="n">
-        <v>45647</v>
-      </c>
-      <c r="C240" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A240" s="6"/>
+      <c r="B240" s="7"/>
+      <c r="C240" s="9"/>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
       <c r="F240" s="9"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B241" s="7" t="n">
-        <v>45648</v>
-      </c>
-      <c r="C241" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A241" s="6"/>
+      <c r="B241" s="7"/>
+      <c r="C241" s="9"/>
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B242" s="7" t="n">
-        <v>45649</v>
-      </c>
-      <c r="C242" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A242" s="6"/>
+      <c r="B242" s="7"/>
+      <c r="C242" s="9"/>
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B243" s="7" t="n">
-        <v>45650</v>
-      </c>
-      <c r="C243" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A243" s="6"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="9"/>
       <c r="D243" s="9"/>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B244" s="7" t="n">
-        <v>45651</v>
-      </c>
-      <c r="C244" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A244" s="6"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="9"/>
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B245" s="7" t="n">
-        <v>45652</v>
-      </c>
-      <c r="C245" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A245" s="6"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="9"/>
       <c r="D245" s="9"/>
       <c r="E245" s="9"/>
       <c r="F245" s="9"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B246" s="7" t="n">
-        <v>45653</v>
-      </c>
-      <c r="C246" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A246" s="6"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="9"/>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
       <c r="F246" s="9"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B247" s="7" t="n">
-        <v>45654</v>
-      </c>
-      <c r="C247" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A247" s="6"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="9"/>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B248" s="7" t="n">
-        <v>45655</v>
-      </c>
-      <c r="C248" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A248" s="6"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="9"/>
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
       <c r="F248" s="9"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B249" s="7" t="n">
-        <v>45656</v>
-      </c>
-      <c r="C249" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A249" s="6"/>
+      <c r="B249" s="7"/>
+      <c r="C249" s="9"/>
       <c r="D249" s="9"/>
       <c r="E249" s="9"/>
       <c r="F249" s="9"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B250" s="7" t="n">
-        <v>45657</v>
-      </c>
-      <c r="C250" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A250" s="6"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="9"/>
       <c r="D250" s="9"/>
       <c r="E250" s="9"/>
       <c r="F250" s="9"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B251" s="7" t="n">
-        <v>45658</v>
-      </c>
-      <c r="C251" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A251" s="6"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="9"/>
       <c r="D251" s="9"/>
       <c r="E251" s="9"/>
       <c r="F251" s="9"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B252" s="7" t="n">
-        <v>45659</v>
-      </c>
-      <c r="C252" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A252" s="6"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="9"/>
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
       <c r="F252" s="9"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B253" s="7" t="n">
-        <v>45660</v>
-      </c>
-      <c r="C253" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A253" s="6"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="9"/>
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
       <c r="F253" s="9"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B254" s="7" t="n">
-        <v>45661</v>
-      </c>
-      <c r="C254" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A254" s="6"/>
+      <c r="B254" s="7"/>
+      <c r="C254" s="9"/>
       <c r="D254" s="9"/>
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B255" s="7" t="n">
-        <v>45662</v>
-      </c>
-      <c r="C255" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A255" s="6"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="9"/>
       <c r="D255" s="9"/>
       <c r="E255" s="9"/>
       <c r="F255" s="9"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B256" s="7" t="n">
-        <v>45663</v>
-      </c>
-      <c r="C256" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A256" s="6"/>
+      <c r="B256" s="7"/>
+      <c r="C256" s="9"/>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
       <c r="F256" s="9"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B257" s="7" t="n">
-        <v>45664</v>
-      </c>
-      <c r="C257" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A257" s="6"/>
+      <c r="B257" s="7"/>
+      <c r="C257" s="9"/>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
       <c r="F257" s="9"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B258" s="7" t="n">
-        <v>45665</v>
-      </c>
-      <c r="C258" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A258" s="6"/>
+      <c r="B258" s="7"/>
+      <c r="C258" s="9"/>
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
       <c r="F258" s="9"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B259" s="7" t="n">
-        <v>45666</v>
-      </c>
-      <c r="C259" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A259" s="6"/>
+      <c r="B259" s="7"/>
+      <c r="C259" s="9"/>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
       <c r="F259" s="9"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B260" s="7" t="n">
-        <v>45667</v>
-      </c>
-      <c r="C260" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A260" s="6"/>
+      <c r="B260" s="7"/>
+      <c r="C260" s="9"/>
       <c r="D260" s="9"/>
       <c r="E260" s="9"/>
       <c r="F260" s="9"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B261" s="7" t="n">
-        <v>45668</v>
-      </c>
-      <c r="C261" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A261" s="6"/>
+      <c r="B261" s="7"/>
+      <c r="C261" s="9"/>
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
       <c r="F261" s="9"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B262" s="7" t="n">
-        <v>45669</v>
-      </c>
-      <c r="C262" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A262" s="6"/>
+      <c r="B262" s="7"/>
+      <c r="C262" s="9"/>
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
       <c r="F262" s="9"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B263" s="7" t="n">
-        <v>45670</v>
-      </c>
-      <c r="C263" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A263" s="6"/>
+      <c r="B263" s="7"/>
+      <c r="C263" s="9"/>
       <c r="D263" s="9"/>
       <c r="E263" s="9"/>
       <c r="F263" s="9"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B264" s="7" t="n">
-        <v>45671</v>
-      </c>
-      <c r="C264" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A264" s="6"/>
+      <c r="B264" s="7"/>
+      <c r="C264" s="9"/>
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
       <c r="F264" s="9"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B265" s="7" t="n">
-        <v>45672</v>
-      </c>
-      <c r="C265" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A265" s="6"/>
+      <c r="B265" s="7"/>
+      <c r="C265" s="9"/>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
       <c r="F265" s="9"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B266" s="7" t="n">
-        <v>45673</v>
-      </c>
-      <c r="C266" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A266" s="6"/>
+      <c r="B266" s="7"/>
+      <c r="C266" s="9"/>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
       <c r="F266" s="9"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B267" s="7" t="n">
-        <v>45674</v>
-      </c>
-      <c r="C267" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A267" s="6"/>
+      <c r="B267" s="7"/>
+      <c r="C267" s="9"/>
       <c r="D267" s="9"/>
       <c r="E267" s="9"/>
       <c r="F267" s="9"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B268" s="7" t="n">
-        <v>45675</v>
-      </c>
-      <c r="C268" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A268" s="6"/>
+      <c r="B268" s="7"/>
+      <c r="C268" s="9"/>
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
       <c r="F268" s="9"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B269" s="7" t="n">
-        <v>45676</v>
-      </c>
-      <c r="C269" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A269" s="6"/>
+      <c r="B269" s="7"/>
+      <c r="C269" s="9"/>
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
       <c r="F269" s="9"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B270" s="7" t="n">
-        <v>45677</v>
-      </c>
-      <c r="C270" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A270" s="6"/>
+      <c r="B270" s="7"/>
+      <c r="C270" s="9"/>
       <c r="D270" s="9"/>
       <c r="E270" s="9"/>
       <c r="F270" s="9"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B271" s="7" t="n">
-        <v>45678</v>
-      </c>
-      <c r="C271" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A271" s="6"/>
+      <c r="B271" s="7"/>
+      <c r="C271" s="9"/>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
       <c r="F271" s="9"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B272" s="7" t="n">
-        <v>45679</v>
-      </c>
-      <c r="C272" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A272" s="6"/>
+      <c r="B272" s="7"/>
+      <c r="C272" s="9"/>
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
       <c r="F272" s="9"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B273" s="7" t="n">
-        <v>45680</v>
-      </c>
-      <c r="C273" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A273" s="6"/>
+      <c r="B273" s="7"/>
+      <c r="C273" s="9"/>
       <c r="D273" s="9"/>
       <c r="E273" s="9"/>
       <c r="F273" s="9"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B274" s="7" t="n">
-        <v>45681</v>
-      </c>
-      <c r="C274" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A274" s="6"/>
+      <c r="B274" s="7"/>
+      <c r="C274" s="9"/>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
       <c r="F274" s="9"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B275" s="7" t="n">
-        <v>45682</v>
-      </c>
-      <c r="C275" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A275" s="6"/>
+      <c r="B275" s="7"/>
+      <c r="C275" s="9"/>
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
       <c r="F275" s="9"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B276" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="C276" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A276" s="6"/>
+      <c r="B276" s="7"/>
+      <c r="C276" s="9"/>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
       <c r="F276" s="9"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B277" s="7" t="n">
-        <v>45684</v>
-      </c>
-      <c r="C277" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A277" s="6"/>
+      <c r="B277" s="7"/>
+      <c r="C277" s="9"/>
       <c r="D277" s="9"/>
       <c r="E277" s="9"/>
       <c r="F277" s="9"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B278" s="7" t="n">
-        <v>45685</v>
-      </c>
-      <c r="C278" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A278" s="6"/>
+      <c r="B278" s="7"/>
+      <c r="C278" s="9"/>
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
       <c r="F278" s="9"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B279" s="7" t="n">
-        <v>45686</v>
-      </c>
-      <c r="C279" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A279" s="6"/>
+      <c r="B279" s="7"/>
+      <c r="C279" s="9"/>
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
       <c r="F279" s="9"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B280" s="7" t="n">
-        <v>45687</v>
-      </c>
-      <c r="C280" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A280" s="6"/>
+      <c r="B280" s="7"/>
+      <c r="C280" s="9"/>
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
       <c r="F280" s="9"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B281" s="7" t="n">
-        <v>45688</v>
-      </c>
-      <c r="C281" s="8" t="n">
-        <v>104</v>
-      </c>
+      <c r="A281" s="6"/>
+      <c r="B281" s="7"/>
+      <c r="C281" s="9"/>
       <c r="D281" s="9"/>
       <c r="E281" s="9"/>
       <c r="F281" s="9"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B282" s="7" t="n">
-        <v>45689</v>
-      </c>
-      <c r="C282" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A282" s="6"/>
+      <c r="B282" s="7"/>
+      <c r="C282" s="9"/>
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
       <c r="F282" s="9"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B283" s="7" t="n">
-        <v>45690</v>
-      </c>
-      <c r="C283" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A283" s="6"/>
+      <c r="B283" s="7"/>
+      <c r="C283" s="9"/>
       <c r="D283" s="9"/>
       <c r="E283" s="9"/>
       <c r="F283" s="9"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B284" s="7" t="n">
-        <v>45691</v>
-      </c>
-      <c r="C284" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A284" s="6"/>
+      <c r="B284" s="7"/>
+      <c r="C284" s="9"/>
       <c r="D284" s="9"/>
       <c r="E284" s="9"/>
       <c r="F284" s="9"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B285" s="7" t="n">
-        <v>45692</v>
-      </c>
-      <c r="C285" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A285" s="6"/>
+      <c r="B285" s="7"/>
+      <c r="C285" s="9"/>
       <c r="D285" s="9"/>
       <c r="E285" s="9"/>
       <c r="F285" s="9"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B286" s="7" t="n">
-        <v>45693</v>
-      </c>
-      <c r="C286" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A286" s="6"/>
+      <c r="B286" s="7"/>
+      <c r="C286" s="9"/>
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
       <c r="F286" s="9"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B287" s="7" t="n">
-        <v>45694</v>
-      </c>
-      <c r="C287" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A287" s="6"/>
+      <c r="B287" s="7"/>
+      <c r="C287" s="9"/>
       <c r="D287" s="9"/>
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B288" s="7" t="n">
-        <v>45695</v>
-      </c>
-      <c r="C288" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A288" s="6"/>
+      <c r="B288" s="7"/>
+      <c r="C288" s="9"/>
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
       <c r="F288" s="9"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B289" s="7" t="n">
-        <v>45696</v>
-      </c>
-      <c r="C289" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A289" s="6"/>
+      <c r="B289" s="7"/>
+      <c r="C289" s="9"/>
       <c r="D289" s="9"/>
       <c r="E289" s="9"/>
       <c r="F289" s="9"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B290" s="7" t="n">
-        <v>45697</v>
-      </c>
-      <c r="C290" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A290" s="6"/>
+      <c r="B290" s="7"/>
+      <c r="C290" s="9"/>
       <c r="D290" s="9"/>
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B291" s="7" t="n">
-        <v>45698</v>
-      </c>
-      <c r="C291" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A291" s="6"/>
+      <c r="B291" s="7"/>
+      <c r="C291" s="9"/>
       <c r="D291" s="9"/>
       <c r="E291" s="9"/>
       <c r="F291" s="9"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B292" s="7" t="n">
-        <v>45699</v>
-      </c>
-      <c r="C292" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A292" s="6"/>
+      <c r="B292" s="7"/>
+      <c r="C292" s="9"/>
       <c r="D292" s="9"/>
       <c r="E292" s="9"/>
       <c r="F292" s="9"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B293" s="7" t="n">
-        <v>45700</v>
-      </c>
-      <c r="C293" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A293" s="6"/>
+      <c r="B293" s="7"/>
+      <c r="C293" s="9"/>
       <c r="D293" s="9"/>
       <c r="E293" s="9"/>
       <c r="F293" s="9"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B294" s="7" t="n">
-        <v>45701</v>
-      </c>
-      <c r="C294" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A294" s="6"/>
+      <c r="B294" s="7"/>
+      <c r="C294" s="9"/>
       <c r="D294" s="9"/>
       <c r="E294" s="9"/>
       <c r="F294" s="9"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B295" s="7" t="n">
-        <v>45702</v>
-      </c>
-      <c r="C295" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A295" s="6"/>
+      <c r="B295" s="7"/>
+      <c r="C295" s="9"/>
       <c r="D295" s="9"/>
       <c r="E295" s="9"/>
       <c r="F295" s="9"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B296" s="7" t="n">
-        <v>45703</v>
-      </c>
-      <c r="C296" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A296" s="6"/>
+      <c r="B296" s="7"/>
+      <c r="C296" s="9"/>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
       <c r="F296" s="9"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B297" s="7" t="n">
-        <v>45704</v>
-      </c>
-      <c r="C297" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A297" s="6"/>
+      <c r="B297" s="7"/>
+      <c r="C297" s="9"/>
       <c r="D297" s="9"/>
       <c r="E297" s="9"/>
       <c r="F297" s="9"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B298" s="7" t="n">
-        <v>45705</v>
-      </c>
-      <c r="C298" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A298" s="6"/>
+      <c r="B298" s="7"/>
+      <c r="C298" s="9"/>
       <c r="D298" s="9"/>
       <c r="E298" s="9"/>
       <c r="F298" s="9"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B299" s="7" t="n">
-        <v>45706</v>
-      </c>
-      <c r="C299" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A299" s="6"/>
+      <c r="B299" s="7"/>
+      <c r="C299" s="9"/>
       <c r="D299" s="9"/>
       <c r="E299" s="9"/>
       <c r="F299" s="9"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B300" s="7" t="n">
-        <v>45707</v>
-      </c>
-      <c r="C300" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A300" s="6"/>
+      <c r="B300" s="7"/>
+      <c r="C300" s="9"/>
       <c r="D300" s="9"/>
       <c r="E300" s="9"/>
       <c r="F300" s="9"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B301" s="7" t="n">
-        <v>45708</v>
-      </c>
-      <c r="C301" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A301" s="6"/>
+      <c r="B301" s="7"/>
+      <c r="C301" s="9"/>
       <c r="D301" s="9"/>
       <c r="E301" s="9"/>
       <c r="F301" s="9"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B302" s="7" t="n">
-        <v>45709</v>
-      </c>
-      <c r="C302" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A302" s="6"/>
+      <c r="B302" s="7"/>
+      <c r="C302" s="9"/>
       <c r="D302" s="9"/>
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B303" s="7" t="n">
-        <v>45710</v>
-      </c>
-      <c r="C303" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A303" s="6"/>
+      <c r="B303" s="7"/>
+      <c r="C303" s="9"/>
       <c r="D303" s="9"/>
       <c r="E303" s="9"/>
       <c r="F303" s="9"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B304" s="7" t="n">
-        <v>45711</v>
-      </c>
-      <c r="C304" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A304" s="6"/>
+      <c r="B304" s="7"/>
+      <c r="C304" s="9"/>
       <c r="D304" s="9"/>
       <c r="E304" s="9"/>
       <c r="F304" s="9"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B305" s="7" t="n">
-        <v>45712</v>
-      </c>
-      <c r="C305" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A305" s="6"/>
+      <c r="B305" s="7"/>
+      <c r="C305" s="9"/>
       <c r="D305" s="9"/>
       <c r="E305" s="9"/>
       <c r="F305" s="9"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B306" s="7" t="n">
-        <v>45713</v>
-      </c>
-      <c r="C306" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A306" s="6"/>
+      <c r="B306" s="7"/>
+      <c r="C306" s="9"/>
       <c r="D306" s="9"/>
       <c r="E306" s="9"/>
       <c r="F306" s="9"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B307" s="7" t="n">
-        <v>45714</v>
-      </c>
-      <c r="C307" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A307" s="6"/>
+      <c r="B307" s="7"/>
+      <c r="C307" s="9"/>
       <c r="D307" s="9"/>
       <c r="E307" s="9"/>
       <c r="F307" s="9"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B308" s="7" t="n">
-        <v>45715</v>
-      </c>
-      <c r="C308" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A308" s="6"/>
+      <c r="B308" s="7"/>
+      <c r="C308" s="9"/>
       <c r="D308" s="9"/>
       <c r="E308" s="9"/>
       <c r="F308" s="9"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B309" s="7" t="n">
-        <v>45716</v>
-      </c>
-      <c r="C309" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A309" s="6"/>
+      <c r="B309" s="7"/>
+      <c r="C309" s="9"/>
       <c r="D309" s="9"/>
       <c r="E309" s="9"/>
       <c r="F309" s="9"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B310" s="7" t="n">
-        <v>45717</v>
-      </c>
-      <c r="C310" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A310" s="6"/>
+      <c r="B310" s="7"/>
+      <c r="C310" s="9"/>
       <c r="D310" s="9"/>
       <c r="E310" s="9"/>
       <c r="F310" s="9"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B311" s="7" t="n">
-        <v>45718</v>
-      </c>
-      <c r="C311" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A311" s="6"/>
+      <c r="B311" s="7"/>
+      <c r="C311" s="9"/>
       <c r="D311" s="9"/>
       <c r="E311" s="9"/>
       <c r="F311" s="9"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B312" s="7" t="n">
-        <v>45719</v>
-      </c>
-      <c r="C312" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A312" s="6"/>
+      <c r="B312" s="7"/>
+      <c r="C312" s="9"/>
       <c r="D312" s="9"/>
       <c r="E312" s="9"/>
       <c r="F312" s="9"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B313" s="7" t="n">
-        <v>45720</v>
-      </c>
-      <c r="C313" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A313" s="6"/>
+      <c r="B313" s="7"/>
+      <c r="C313" s="9"/>
       <c r="D313" s="9"/>
       <c r="E313" s="9"/>
       <c r="F313" s="9"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B314" s="7" t="n">
-        <v>45721</v>
-      </c>
-      <c r="C314" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A314" s="6"/>
+      <c r="B314" s="7"/>
+      <c r="C314" s="9"/>
       <c r="D314" s="9"/>
       <c r="E314" s="9"/>
       <c r="F314" s="9"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B315" s="7" t="n">
-        <v>45722</v>
-      </c>
-      <c r="C315" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A315" s="6"/>
+      <c r="B315" s="7"/>
+      <c r="C315" s="9"/>
       <c r="D315" s="9"/>
       <c r="E315" s="9"/>
       <c r="F315" s="9"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B316" s="7" t="n">
-        <v>45723</v>
-      </c>
-      <c r="C316" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A316" s="6"/>
+      <c r="B316" s="7"/>
+      <c r="C316" s="9"/>
       <c r="D316" s="9"/>
       <c r="E316" s="9"/>
       <c r="F316" s="9"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B317" s="7" t="n">
-        <v>45724</v>
-      </c>
-      <c r="C317" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A317" s="6"/>
+      <c r="B317" s="7"/>
+      <c r="C317" s="9"/>
       <c r="D317" s="9"/>
       <c r="E317" s="9"/>
       <c r="F317" s="9"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B318" s="7" t="n">
-        <v>45725</v>
-      </c>
-      <c r="C318" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A318" s="6"/>
+      <c r="B318" s="7"/>
+      <c r="C318" s="9"/>
       <c r="D318" s="9"/>
       <c r="E318" s="9"/>
       <c r="F318" s="9"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B319" s="7" t="n">
-        <v>45726</v>
-      </c>
-      <c r="C319" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A319" s="6"/>
+      <c r="B319" s="7"/>
+      <c r="C319" s="9"/>
       <c r="D319" s="9"/>
       <c r="E319" s="9"/>
       <c r="F319" s="9"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B320" s="7" t="n">
-        <v>45727</v>
-      </c>
-      <c r="C320" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A320" s="6"/>
+      <c r="B320" s="7"/>
+      <c r="C320" s="9"/>
       <c r="D320" s="9"/>
       <c r="E320" s="9"/>
       <c r="F320" s="9"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B321" s="7" t="n">
-        <v>45728</v>
-      </c>
-      <c r="C321" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A321" s="6"/>
+      <c r="B321" s="7"/>
+      <c r="C321" s="9"/>
       <c r="D321" s="9"/>
       <c r="E321" s="9"/>
       <c r="F321" s="9"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B322" s="7" t="n">
-        <v>45729</v>
-      </c>
-      <c r="C322" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A322" s="6"/>
+      <c r="B322" s="7"/>
+      <c r="C322" s="9"/>
       <c r="D322" s="9"/>
       <c r="E322" s="9"/>
       <c r="F322" s="9"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B323" s="7" t="n">
-        <v>45730</v>
-      </c>
-      <c r="C323" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A323" s="6"/>
+      <c r="B323" s="7"/>
+      <c r="C323" s="9"/>
       <c r="D323" s="9"/>
       <c r="E323" s="9"/>
       <c r="F323" s="9"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B324" s="7" t="n">
-        <v>45731</v>
-      </c>
-      <c r="C324" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A324" s="6"/>
+      <c r="B324" s="7"/>
+      <c r="C324" s="9"/>
       <c r="D324" s="9"/>
       <c r="E324" s="9"/>
       <c r="F324" s="9"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B325" s="7" t="n">
-        <v>45732</v>
-      </c>
-      <c r="C325" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A325" s="6"/>
+      <c r="B325" s="7"/>
+      <c r="C325" s="9"/>
       <c r="D325" s="9"/>
       <c r="E325" s="9"/>
       <c r="F325" s="9"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B326" s="7" t="n">
-        <v>45733</v>
-      </c>
-      <c r="C326" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A326" s="6"/>
+      <c r="B326" s="7"/>
+      <c r="C326" s="9"/>
       <c r="D326" s="9"/>
       <c r="E326" s="9"/>
       <c r="F326" s="9"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B327" s="7" t="n">
-        <v>45734</v>
-      </c>
-      <c r="C327" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A327" s="6"/>
+      <c r="B327" s="7"/>
+      <c r="C327" s="9"/>
       <c r="D327" s="9"/>
       <c r="E327" s="9"/>
       <c r="F327" s="9"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B328" s="7" t="n">
-        <v>45735</v>
-      </c>
-      <c r="C328" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A328" s="6"/>
+      <c r="B328" s="7"/>
+      <c r="C328" s="9"/>
       <c r="D328" s="9"/>
       <c r="E328" s="9"/>
       <c r="F328" s="9"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B329" s="7" t="n">
-        <v>45736</v>
-      </c>
-      <c r="C329" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A329" s="6"/>
+      <c r="B329" s="7"/>
+      <c r="C329" s="9"/>
       <c r="D329" s="9"/>
       <c r="E329" s="9"/>
       <c r="F329" s="9"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B330" s="7" t="n">
-        <v>45737</v>
-      </c>
-      <c r="C330" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A330" s="6"/>
+      <c r="B330" s="7"/>
+      <c r="C330" s="9"/>
       <c r="D330" s="9"/>
       <c r="E330" s="9"/>
       <c r="F330" s="9"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B331" s="7" t="n">
-        <v>45738</v>
-      </c>
-      <c r="C331" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A331" s="6"/>
+      <c r="B331" s="7"/>
+      <c r="C331" s="9"/>
       <c r="D331" s="9"/>
       <c r="E331" s="9"/>
       <c r="F331" s="9"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B332" s="7" t="n">
-        <v>45739</v>
-      </c>
-      <c r="C332" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A332" s="6"/>
+      <c r="B332" s="7"/>
+      <c r="C332" s="9"/>
       <c r="D332" s="9"/>
       <c r="E332" s="9"/>
       <c r="F332" s="9"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B333" s="7" t="n">
-        <v>45740</v>
-      </c>
-      <c r="C333" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A333" s="6"/>
+      <c r="B333" s="7"/>
+      <c r="C333" s="9"/>
       <c r="D333" s="9"/>
       <c r="E333" s="9"/>
       <c r="F333" s="9"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B334" s="7" t="n">
-        <v>45741</v>
-      </c>
-      <c r="C334" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A334" s="6"/>
+      <c r="B334" s="7"/>
+      <c r="C334" s="9"/>
       <c r="D334" s="9"/>
       <c r="E334" s="9"/>
       <c r="F334" s="9"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B335" s="7" t="n">
-        <v>45742</v>
-      </c>
-      <c r="C335" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A335" s="6"/>
+      <c r="B335" s="7"/>
+      <c r="C335" s="9"/>
       <c r="D335" s="9"/>
       <c r="E335" s="9"/>
       <c r="F335" s="9"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B336" s="7" t="n">
-        <v>45743</v>
-      </c>
-      <c r="C336" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A336" s="6"/>
+      <c r="B336" s="7"/>
+      <c r="C336" s="9"/>
       <c r="D336" s="9"/>
       <c r="E336" s="9"/>
       <c r="F336" s="9"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B337" s="7" t="n">
-        <v>45744</v>
-      </c>
-      <c r="C337" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A337" s="6"/>
+      <c r="B337" s="7"/>
+      <c r="C337" s="9"/>
       <c r="D337" s="9"/>
       <c r="E337" s="9"/>
       <c r="F337" s="9"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B338" s="7" t="n">
-        <v>45745</v>
-      </c>
-      <c r="C338" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A338" s="6"/>
+      <c r="B338" s="7"/>
+      <c r="C338" s="9"/>
       <c r="D338" s="9"/>
       <c r="E338" s="9"/>
       <c r="F338" s="9"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B339" s="7" t="n">
-        <v>45746</v>
-      </c>
-      <c r="C339" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A339" s="6"/>
+      <c r="B339" s="7"/>
+      <c r="C339" s="9"/>
       <c r="D339" s="9"/>
       <c r="E339" s="9"/>
       <c r="F339" s="9"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B340" s="7" t="n">
-        <v>45747</v>
-      </c>
-      <c r="C340" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A340" s="6"/>
+      <c r="B340" s="7"/>
+      <c r="C340" s="9"/>
       <c r="D340" s="9"/>
       <c r="E340" s="9"/>
       <c r="F340" s="9"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B341" s="7" t="n">
-        <v>45748</v>
-      </c>
-      <c r="C341" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A341" s="6"/>
+      <c r="B341" s="7"/>
+      <c r="C341" s="9"/>
       <c r="D341" s="9"/>
       <c r="E341" s="9"/>
       <c r="F341" s="9"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B342" s="7" t="n">
-        <v>45749</v>
-      </c>
-      <c r="C342" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A342" s="6"/>
+      <c r="B342" s="7"/>
+      <c r="C342" s="9"/>
       <c r="D342" s="9"/>
       <c r="E342" s="9"/>
       <c r="F342" s="9"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B343" s="7" t="n">
-        <v>45750</v>
-      </c>
-      <c r="C343" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A343" s="6"/>
+      <c r="B343" s="7"/>
+      <c r="C343" s="9"/>
       <c r="D343" s="9"/>
       <c r="E343" s="9"/>
       <c r="F343" s="9"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B344" s="7" t="n">
-        <v>45751</v>
-      </c>
-      <c r="C344" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A344" s="6"/>
+      <c r="B344" s="7"/>
+      <c r="C344" s="9"/>
       <c r="D344" s="9"/>
       <c r="E344" s="9"/>
       <c r="F344" s="9"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B345" s="7" t="n">
-        <v>45752</v>
-      </c>
-      <c r="C345" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A345" s="6"/>
+      <c r="B345" s="7"/>
+      <c r="C345" s="9"/>
       <c r="D345" s="9"/>
       <c r="E345" s="9"/>
       <c r="F345" s="9"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B346" s="7" t="n">
-        <v>45753</v>
-      </c>
-      <c r="C346" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A346" s="6"/>
+      <c r="B346" s="7"/>
+      <c r="C346" s="9"/>
       <c r="D346" s="9"/>
       <c r="E346" s="9"/>
       <c r="F346" s="9"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B347" s="7" t="n">
-        <v>45754</v>
-      </c>
-      <c r="C347" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A347" s="6"/>
+      <c r="B347" s="7"/>
+      <c r="C347" s="9"/>
       <c r="D347" s="9"/>
       <c r="E347" s="9"/>
       <c r="F347" s="9"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B348" s="7" t="n">
-        <v>45755</v>
-      </c>
-      <c r="C348" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A348" s="6"/>
+      <c r="B348" s="7"/>
+      <c r="C348" s="9"/>
       <c r="D348" s="9"/>
       <c r="E348" s="9"/>
       <c r="F348" s="9"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B349" s="7" t="n">
-        <v>45756</v>
-      </c>
-      <c r="C349" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A349" s="6"/>
+      <c r="B349" s="7"/>
+      <c r="C349" s="9"/>
       <c r="D349" s="9"/>
       <c r="E349" s="9"/>
       <c r="F349" s="9"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B350" s="7" t="n">
-        <v>45757</v>
-      </c>
-      <c r="C350" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A350" s="6"/>
+      <c r="B350" s="7"/>
+      <c r="C350" s="9"/>
       <c r="D350" s="9"/>
       <c r="E350" s="9"/>
       <c r="F350" s="9"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B351" s="7" t="n">
-        <v>45758</v>
-      </c>
-      <c r="C351" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A351" s="6"/>
+      <c r="B351" s="7"/>
+      <c r="C351" s="9"/>
       <c r="D351" s="9"/>
       <c r="E351" s="9"/>
       <c r="F351" s="9"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B352" s="7" t="n">
-        <v>45759</v>
-      </c>
-      <c r="C352" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A352" s="6"/>
+      <c r="B352" s="7"/>
+      <c r="C352" s="9"/>
       <c r="D352" s="9"/>
       <c r="E352" s="9"/>
       <c r="F352" s="9"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B353" s="7" t="n">
-        <v>45760</v>
-      </c>
-      <c r="C353" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A353" s="6"/>
+      <c r="B353" s="7"/>
+      <c r="C353" s="9"/>
       <c r="D353" s="9"/>
       <c r="E353" s="9"/>
       <c r="F353" s="9"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B354" s="7" t="n">
-        <v>45761</v>
-      </c>
-      <c r="C354" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A354" s="6"/>
+      <c r="B354" s="7"/>
+      <c r="C354" s="9"/>
       <c r="D354" s="9"/>
       <c r="E354" s="9"/>
       <c r="F354" s="9"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B355" s="7" t="n">
-        <v>45762</v>
-      </c>
-      <c r="C355" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A355" s="6"/>
+      <c r="B355" s="7"/>
+      <c r="C355" s="9"/>
       <c r="D355" s="9"/>
       <c r="E355" s="9"/>
       <c r="F355" s="9"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B356" s="7" t="n">
-        <v>45763</v>
-      </c>
-      <c r="C356" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A356" s="6"/>
+      <c r="B356" s="7"/>
+      <c r="C356" s="9"/>
       <c r="D356" s="9"/>
       <c r="E356" s="9"/>
       <c r="F356" s="9"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B357" s="7" t="n">
-        <v>45764</v>
-      </c>
-      <c r="C357" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A357" s="6"/>
+      <c r="B357" s="7"/>
+      <c r="C357" s="9"/>
       <c r="D357" s="9"/>
       <c r="E357" s="9"/>
       <c r="F357" s="9"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B358" s="7" t="n">
-        <v>45765</v>
-      </c>
-      <c r="C358" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A358" s="6"/>
+      <c r="B358" s="7"/>
+      <c r="C358" s="9"/>
       <c r="D358" s="9"/>
       <c r="E358" s="9"/>
       <c r="F358" s="9"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B359" s="7" t="n">
-        <v>45766</v>
-      </c>
-      <c r="C359" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A359" s="6"/>
+      <c r="B359" s="7"/>
+      <c r="C359" s="9"/>
       <c r="D359" s="9"/>
       <c r="E359" s="9"/>
       <c r="F359" s="9"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B360" s="7" t="n">
-        <v>45767</v>
-      </c>
-      <c r="C360" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A360" s="6"/>
+      <c r="B360" s="7"/>
+      <c r="C360" s="9"/>
       <c r="D360" s="9"/>
       <c r="E360" s="9"/>
       <c r="F360" s="9"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B361" s="7" t="n">
-        <v>45768</v>
-      </c>
-      <c r="C361" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A361" s="6"/>
+      <c r="B361" s="7"/>
+      <c r="C361" s="9"/>
       <c r="D361" s="9"/>
       <c r="E361" s="9"/>
       <c r="F361" s="9"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B362" s="7" t="n">
-        <v>45769</v>
-      </c>
-      <c r="C362" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A362" s="6"/>
+      <c r="B362" s="7"/>
+      <c r="C362" s="9"/>
       <c r="D362" s="9"/>
       <c r="E362" s="9"/>
       <c r="F362" s="9"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B363" s="7" t="n">
-        <v>45770</v>
-      </c>
-      <c r="C363" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A363" s="6"/>
+      <c r="B363" s="7"/>
+      <c r="C363" s="9"/>
       <c r="D363" s="9"/>
       <c r="E363" s="9"/>
       <c r="F363" s="9"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B364" s="7" t="n">
-        <v>45771</v>
-      </c>
-      <c r="C364" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A364" s="6"/>
+      <c r="B364" s="7"/>
+      <c r="C364" s="9"/>
       <c r="D364" s="9"/>
       <c r="E364" s="9"/>
       <c r="F364" s="9"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B365" s="7" t="n">
-        <v>45772</v>
-      </c>
-      <c r="C365" s="8" t="n">
-        <v>455</v>
-      </c>
+      <c r="A365" s="6"/>
+      <c r="B365" s="7"/>
+      <c r="C365" s="9"/>
       <c r="D365" s="9"/>
       <c r="E365" s="9"/>
       <c r="F365" s="9"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B366" s="7" t="n">
-        <v>45773</v>
-      </c>
-      <c r="C366" s="8" t="n">
-        <v>455</v>
-      </c>
+      <c r="A366" s="6"/>
+      <c r="B366" s="7"/>
+      <c r="C366" s="9"/>
       <c r="D366" s="9"/>
       <c r="E366" s="9"/>
       <c r="F366" s="9"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B367" s="7" t="n">
-        <v>45774</v>
-      </c>
-      <c r="C367" s="8" t="n">
-        <v>455</v>
-      </c>
+      <c r="A367" s="6"/>
+      <c r="B367" s="7"/>
+      <c r="C367" s="9"/>
       <c r="D367" s="9"/>
       <c r="E367" s="9"/>
       <c r="F367" s="9"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B368" s="7" t="n">
-        <v>45775</v>
-      </c>
-      <c r="C368" s="8" t="n">
-        <v>455</v>
-      </c>
+      <c r="A368" s="6"/>
+      <c r="B368" s="7"/>
+      <c r="C368" s="9"/>
       <c r="D368" s="9"/>
       <c r="E368" s="9"/>
       <c r="F368" s="9"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B369" s="7" t="n">
-        <v>45776</v>
-      </c>
-      <c r="C369" s="8" t="n">
-        <v>455</v>
-      </c>
+      <c r="A369" s="6"/>
+      <c r="B369" s="7"/>
+      <c r="C369" s="9"/>
       <c r="D369" s="9"/>
       <c r="E369" s="9"/>
       <c r="F369" s="9"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B370" s="7" t="n">
-        <v>45777</v>
-      </c>
-      <c r="C370" s="8" t="n">
-        <v>455</v>
-      </c>
+      <c r="A370" s="6"/>
+      <c r="B370" s="7"/>
+      <c r="C370" s="9"/>
       <c r="D370" s="9"/>
       <c r="E370" s="9"/>
       <c r="F370" s="9"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B371" s="7" t="n">
-        <v>45778</v>
-      </c>
-      <c r="C371" s="8" t="n">
-        <v>455</v>
-      </c>
+      <c r="A371" s="6"/>
+      <c r="B371" s="7"/>
+      <c r="C371" s="9"/>
       <c r="D371" s="9"/>
       <c r="E371" s="9"/>
       <c r="F371" s="9"/>
@@ -9440,2110 +7862,269 @@
       <c r="E835" s="9"/>
       <c r="F835" s="9"/>
     </row>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="6"/>
-      <c r="B836" s="7"/>
-      <c r="C836" s="9"/>
-      <c r="D836" s="9"/>
-      <c r="E836" s="9"/>
-      <c r="F836" s="9"/>
-    </row>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="6"/>
-      <c r="B837" s="7"/>
-      <c r="C837" s="9"/>
-      <c r="D837" s="9"/>
-      <c r="E837" s="9"/>
-      <c r="F837" s="9"/>
-    </row>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="6"/>
-      <c r="B838" s="7"/>
-      <c r="C838" s="9"/>
-      <c r="D838" s="9"/>
-      <c r="E838" s="9"/>
-      <c r="F838" s="9"/>
-    </row>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="6"/>
-      <c r="B839" s="7"/>
-      <c r="C839" s="9"/>
-      <c r="D839" s="9"/>
-      <c r="E839" s="9"/>
-      <c r="F839" s="9"/>
-    </row>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="6"/>
-      <c r="B840" s="7"/>
-      <c r="C840" s="9"/>
-      <c r="D840" s="9"/>
-      <c r="E840" s="9"/>
-      <c r="F840" s="9"/>
-    </row>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="6"/>
-      <c r="B841" s="7"/>
-      <c r="C841" s="9"/>
-      <c r="D841" s="9"/>
-      <c r="E841" s="9"/>
-      <c r="F841" s="9"/>
-    </row>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="6"/>
-      <c r="B842" s="7"/>
-      <c r="C842" s="9"/>
-      <c r="D842" s="9"/>
-      <c r="E842" s="9"/>
-      <c r="F842" s="9"/>
-    </row>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="6"/>
-      <c r="B843" s="7"/>
-      <c r="C843" s="9"/>
-      <c r="D843" s="9"/>
-      <c r="E843" s="9"/>
-      <c r="F843" s="9"/>
-    </row>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="6"/>
-      <c r="B844" s="7"/>
-      <c r="C844" s="9"/>
-      <c r="D844" s="9"/>
-      <c r="E844" s="9"/>
-      <c r="F844" s="9"/>
-    </row>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="6"/>
-      <c r="B845" s="7"/>
-      <c r="C845" s="9"/>
-      <c r="D845" s="9"/>
-      <c r="E845" s="9"/>
-      <c r="F845" s="9"/>
-    </row>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="6"/>
-      <c r="B846" s="7"/>
-      <c r="C846" s="9"/>
-      <c r="D846" s="9"/>
-      <c r="E846" s="9"/>
-      <c r="F846" s="9"/>
-    </row>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="6"/>
-      <c r="B847" s="7"/>
-      <c r="C847" s="9"/>
-      <c r="D847" s="9"/>
-      <c r="E847" s="9"/>
-      <c r="F847" s="9"/>
-    </row>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="6"/>
-      <c r="B848" s="7"/>
-      <c r="C848" s="9"/>
-      <c r="D848" s="9"/>
-      <c r="E848" s="9"/>
-      <c r="F848" s="9"/>
-    </row>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="6"/>
-      <c r="B849" s="7"/>
-      <c r="C849" s="9"/>
-      <c r="D849" s="9"/>
-      <c r="E849" s="9"/>
-      <c r="F849" s="9"/>
-    </row>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="6"/>
-      <c r="B850" s="7"/>
-      <c r="C850" s="9"/>
-      <c r="D850" s="9"/>
-      <c r="E850" s="9"/>
-      <c r="F850" s="9"/>
-    </row>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="6"/>
-      <c r="B851" s="7"/>
-      <c r="C851" s="9"/>
-      <c r="D851" s="9"/>
-      <c r="E851" s="9"/>
-      <c r="F851" s="9"/>
-    </row>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="6"/>
-      <c r="B852" s="7"/>
-      <c r="C852" s="9"/>
-      <c r="D852" s="9"/>
-      <c r="E852" s="9"/>
-      <c r="F852" s="9"/>
-    </row>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="6"/>
-      <c r="B853" s="7"/>
-      <c r="C853" s="9"/>
-      <c r="D853" s="9"/>
-      <c r="E853" s="9"/>
-      <c r="F853" s="9"/>
-    </row>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="6"/>
-      <c r="B854" s="7"/>
-      <c r="C854" s="9"/>
-      <c r="D854" s="9"/>
-      <c r="E854" s="9"/>
-      <c r="F854" s="9"/>
-    </row>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="6"/>
-      <c r="B855" s="7"/>
-      <c r="C855" s="9"/>
-      <c r="D855" s="9"/>
-      <c r="E855" s="9"/>
-      <c r="F855" s="9"/>
-    </row>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="6"/>
-      <c r="B856" s="7"/>
-      <c r="C856" s="9"/>
-      <c r="D856" s="9"/>
-      <c r="E856" s="9"/>
-      <c r="F856" s="9"/>
-    </row>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="6"/>
-      <c r="B857" s="7"/>
-      <c r="C857" s="9"/>
-      <c r="D857" s="9"/>
-      <c r="E857" s="9"/>
-      <c r="F857" s="9"/>
-    </row>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="6"/>
-      <c r="B858" s="7"/>
-      <c r="C858" s="9"/>
-      <c r="D858" s="9"/>
-      <c r="E858" s="9"/>
-      <c r="F858" s="9"/>
-    </row>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="6"/>
-      <c r="B859" s="7"/>
-      <c r="C859" s="9"/>
-      <c r="D859" s="9"/>
-      <c r="E859" s="9"/>
-      <c r="F859" s="9"/>
-    </row>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="6"/>
-      <c r="B860" s="7"/>
-      <c r="C860" s="9"/>
-      <c r="D860" s="9"/>
-      <c r="E860" s="9"/>
-      <c r="F860" s="9"/>
-    </row>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="6"/>
-      <c r="B861" s="7"/>
-      <c r="C861" s="9"/>
-      <c r="D861" s="9"/>
-      <c r="E861" s="9"/>
-      <c r="F861" s="9"/>
-    </row>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="6"/>
-      <c r="B862" s="7"/>
-      <c r="C862" s="9"/>
-      <c r="D862" s="9"/>
-      <c r="E862" s="9"/>
-      <c r="F862" s="9"/>
-    </row>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="6"/>
-      <c r="B863" s="7"/>
-      <c r="C863" s="9"/>
-      <c r="D863" s="9"/>
-      <c r="E863" s="9"/>
-      <c r="F863" s="9"/>
-    </row>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="6"/>
-      <c r="B864" s="7"/>
-      <c r="C864" s="9"/>
-      <c r="D864" s="9"/>
-      <c r="E864" s="9"/>
-      <c r="F864" s="9"/>
-    </row>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="6"/>
-      <c r="B865" s="7"/>
-      <c r="C865" s="9"/>
-      <c r="D865" s="9"/>
-      <c r="E865" s="9"/>
-      <c r="F865" s="9"/>
-    </row>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="6"/>
-      <c r="B866" s="7"/>
-      <c r="C866" s="9"/>
-      <c r="D866" s="9"/>
-      <c r="E866" s="9"/>
-      <c r="F866" s="9"/>
-    </row>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="6"/>
-      <c r="B867" s="7"/>
-      <c r="C867" s="9"/>
-      <c r="D867" s="9"/>
-      <c r="E867" s="9"/>
-      <c r="F867" s="9"/>
-    </row>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="6"/>
-      <c r="B868" s="7"/>
-      <c r="C868" s="9"/>
-      <c r="D868" s="9"/>
-      <c r="E868" s="9"/>
-      <c r="F868" s="9"/>
-    </row>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="6"/>
-      <c r="B869" s="7"/>
-      <c r="C869" s="9"/>
-      <c r="D869" s="9"/>
-      <c r="E869" s="9"/>
-      <c r="F869" s="9"/>
-    </row>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="6"/>
-      <c r="B870" s="7"/>
-      <c r="C870" s="9"/>
-      <c r="D870" s="9"/>
-      <c r="E870" s="9"/>
-      <c r="F870" s="9"/>
-    </row>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="6"/>
-      <c r="B871" s="7"/>
-      <c r="C871" s="9"/>
-      <c r="D871" s="9"/>
-      <c r="E871" s="9"/>
-      <c r="F871" s="9"/>
-    </row>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="6"/>
-      <c r="B872" s="7"/>
-      <c r="C872" s="9"/>
-      <c r="D872" s="9"/>
-      <c r="E872" s="9"/>
-      <c r="F872" s="9"/>
-    </row>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="6"/>
-      <c r="B873" s="7"/>
-      <c r="C873" s="9"/>
-      <c r="D873" s="9"/>
-      <c r="E873" s="9"/>
-      <c r="F873" s="9"/>
-    </row>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="6"/>
-      <c r="B874" s="7"/>
-      <c r="C874" s="9"/>
-      <c r="D874" s="9"/>
-      <c r="E874" s="9"/>
-      <c r="F874" s="9"/>
-    </row>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="6"/>
-      <c r="B875" s="7"/>
-      <c r="C875" s="9"/>
-      <c r="D875" s="9"/>
-      <c r="E875" s="9"/>
-      <c r="F875" s="9"/>
-    </row>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="6"/>
-      <c r="B876" s="7"/>
-      <c r="C876" s="9"/>
-      <c r="D876" s="9"/>
-      <c r="E876" s="9"/>
-      <c r="F876" s="9"/>
-    </row>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="6"/>
-      <c r="B877" s="7"/>
-      <c r="C877" s="9"/>
-      <c r="D877" s="9"/>
-      <c r="E877" s="9"/>
-      <c r="F877" s="9"/>
-    </row>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="6"/>
-      <c r="B878" s="7"/>
-      <c r="C878" s="9"/>
-      <c r="D878" s="9"/>
-      <c r="E878" s="9"/>
-      <c r="F878" s="9"/>
-    </row>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="6"/>
-      <c r="B879" s="7"/>
-      <c r="C879" s="9"/>
-      <c r="D879" s="9"/>
-      <c r="E879" s="9"/>
-      <c r="F879" s="9"/>
-    </row>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="6"/>
-      <c r="B880" s="7"/>
-      <c r="C880" s="9"/>
-      <c r="D880" s="9"/>
-      <c r="E880" s="9"/>
-      <c r="F880" s="9"/>
-    </row>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="6"/>
-      <c r="B881" s="7"/>
-      <c r="C881" s="9"/>
-      <c r="D881" s="9"/>
-      <c r="E881" s="9"/>
-      <c r="F881" s="9"/>
-    </row>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="6"/>
-      <c r="B882" s="7"/>
-      <c r="C882" s="9"/>
-      <c r="D882" s="9"/>
-      <c r="E882" s="9"/>
-      <c r="F882" s="9"/>
-    </row>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="6"/>
-      <c r="B883" s="7"/>
-      <c r="C883" s="9"/>
-      <c r="D883" s="9"/>
-      <c r="E883" s="9"/>
-      <c r="F883" s="9"/>
-    </row>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="6"/>
-      <c r="B884" s="7"/>
-      <c r="C884" s="9"/>
-      <c r="D884" s="9"/>
-      <c r="E884" s="9"/>
-      <c r="F884" s="9"/>
-    </row>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="6"/>
-      <c r="B885" s="7"/>
-      <c r="C885" s="9"/>
-      <c r="D885" s="9"/>
-      <c r="E885" s="9"/>
-      <c r="F885" s="9"/>
-    </row>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="6"/>
-      <c r="B886" s="7"/>
-      <c r="C886" s="9"/>
-      <c r="D886" s="9"/>
-      <c r="E886" s="9"/>
-      <c r="F886" s="9"/>
-    </row>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="6"/>
-      <c r="B887" s="7"/>
-      <c r="C887" s="9"/>
-      <c r="D887" s="9"/>
-      <c r="E887" s="9"/>
-      <c r="F887" s="9"/>
-    </row>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="6"/>
-      <c r="B888" s="7"/>
-      <c r="C888" s="9"/>
-      <c r="D888" s="9"/>
-      <c r="E888" s="9"/>
-      <c r="F888" s="9"/>
-    </row>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="6"/>
-      <c r="B889" s="7"/>
-      <c r="C889" s="9"/>
-      <c r="D889" s="9"/>
-      <c r="E889" s="9"/>
-      <c r="F889" s="9"/>
-    </row>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="6"/>
-      <c r="B890" s="7"/>
-      <c r="C890" s="9"/>
-      <c r="D890" s="9"/>
-      <c r="E890" s="9"/>
-      <c r="F890" s="9"/>
-    </row>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="6"/>
-      <c r="B891" s="7"/>
-      <c r="C891" s="9"/>
-      <c r="D891" s="9"/>
-      <c r="E891" s="9"/>
-      <c r="F891" s="9"/>
-    </row>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="6"/>
-      <c r="B892" s="7"/>
-      <c r="C892" s="9"/>
-      <c r="D892" s="9"/>
-      <c r="E892" s="9"/>
-      <c r="F892" s="9"/>
-    </row>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="6"/>
-      <c r="B893" s="7"/>
-      <c r="C893" s="9"/>
-      <c r="D893" s="9"/>
-      <c r="E893" s="9"/>
-      <c r="F893" s="9"/>
-    </row>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="6"/>
-      <c r="B894" s="7"/>
-      <c r="C894" s="9"/>
-      <c r="D894" s="9"/>
-      <c r="E894" s="9"/>
-      <c r="F894" s="9"/>
-    </row>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="6"/>
-      <c r="B895" s="7"/>
-      <c r="C895" s="9"/>
-      <c r="D895" s="9"/>
-      <c r="E895" s="9"/>
-      <c r="F895" s="9"/>
-    </row>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="6"/>
-      <c r="B896" s="7"/>
-      <c r="C896" s="9"/>
-      <c r="D896" s="9"/>
-      <c r="E896" s="9"/>
-      <c r="F896" s="9"/>
-    </row>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="6"/>
-      <c r="B897" s="7"/>
-      <c r="C897" s="9"/>
-      <c r="D897" s="9"/>
-      <c r="E897" s="9"/>
-      <c r="F897" s="9"/>
-    </row>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="6"/>
-      <c r="B898" s="7"/>
-      <c r="C898" s="9"/>
-      <c r="D898" s="9"/>
-      <c r="E898" s="9"/>
-      <c r="F898" s="9"/>
-    </row>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="6"/>
-      <c r="B899" s="7"/>
-      <c r="C899" s="9"/>
-      <c r="D899" s="9"/>
-      <c r="E899" s="9"/>
-      <c r="F899" s="9"/>
-    </row>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="6"/>
-      <c r="B900" s="7"/>
-      <c r="C900" s="9"/>
-      <c r="D900" s="9"/>
-      <c r="E900" s="9"/>
-      <c r="F900" s="9"/>
-    </row>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="6"/>
-      <c r="B901" s="7"/>
-      <c r="C901" s="9"/>
-      <c r="D901" s="9"/>
-      <c r="E901" s="9"/>
-      <c r="F901" s="9"/>
-    </row>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="6"/>
-      <c r="B902" s="7"/>
-      <c r="C902" s="9"/>
-      <c r="D902" s="9"/>
-      <c r="E902" s="9"/>
-      <c r="F902" s="9"/>
-    </row>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="6"/>
-      <c r="B903" s="7"/>
-      <c r="C903" s="9"/>
-      <c r="D903" s="9"/>
-      <c r="E903" s="9"/>
-      <c r="F903" s="9"/>
-    </row>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="6"/>
-      <c r="B904" s="7"/>
-      <c r="C904" s="9"/>
-      <c r="D904" s="9"/>
-      <c r="E904" s="9"/>
-      <c r="F904" s="9"/>
-    </row>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="6"/>
-      <c r="B905" s="7"/>
-      <c r="C905" s="9"/>
-      <c r="D905" s="9"/>
-      <c r="E905" s="9"/>
-      <c r="F905" s="9"/>
-    </row>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="6"/>
-      <c r="B906" s="7"/>
-      <c r="C906" s="9"/>
-      <c r="D906" s="9"/>
-      <c r="E906" s="9"/>
-      <c r="F906" s="9"/>
-    </row>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="6"/>
-      <c r="B907" s="7"/>
-      <c r="C907" s="9"/>
-      <c r="D907" s="9"/>
-      <c r="E907" s="9"/>
-      <c r="F907" s="9"/>
-    </row>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="6"/>
-      <c r="B908" s="7"/>
-      <c r="C908" s="9"/>
-      <c r="D908" s="9"/>
-      <c r="E908" s="9"/>
-      <c r="F908" s="9"/>
-    </row>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="6"/>
-      <c r="B909" s="7"/>
-      <c r="C909" s="9"/>
-      <c r="D909" s="9"/>
-      <c r="E909" s="9"/>
-      <c r="F909" s="9"/>
-    </row>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="6"/>
-      <c r="B910" s="7"/>
-      <c r="C910" s="9"/>
-      <c r="D910" s="9"/>
-      <c r="E910" s="9"/>
-      <c r="F910" s="9"/>
-    </row>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="6"/>
-      <c r="B911" s="7"/>
-      <c r="C911" s="9"/>
-      <c r="D911" s="9"/>
-      <c r="E911" s="9"/>
-      <c r="F911" s="9"/>
-    </row>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="6"/>
-      <c r="B912" s="7"/>
-      <c r="C912" s="9"/>
-      <c r="D912" s="9"/>
-      <c r="E912" s="9"/>
-      <c r="F912" s="9"/>
-    </row>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="6"/>
-      <c r="B913" s="7"/>
-      <c r="C913" s="9"/>
-      <c r="D913" s="9"/>
-      <c r="E913" s="9"/>
-      <c r="F913" s="9"/>
-    </row>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="6"/>
-      <c r="B914" s="7"/>
-      <c r="C914" s="9"/>
-      <c r="D914" s="9"/>
-      <c r="E914" s="9"/>
-      <c r="F914" s="9"/>
-    </row>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="6"/>
-      <c r="B915" s="7"/>
-      <c r="C915" s="9"/>
-      <c r="D915" s="9"/>
-      <c r="E915" s="9"/>
-      <c r="F915" s="9"/>
-    </row>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="6"/>
-      <c r="B916" s="7"/>
-      <c r="C916" s="9"/>
-      <c r="D916" s="9"/>
-      <c r="E916" s="9"/>
-      <c r="F916" s="9"/>
-    </row>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="6"/>
-      <c r="B917" s="7"/>
-      <c r="C917" s="9"/>
-      <c r="D917" s="9"/>
-      <c r="E917" s="9"/>
-      <c r="F917" s="9"/>
-    </row>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="6"/>
-      <c r="B918" s="7"/>
-      <c r="C918" s="9"/>
-      <c r="D918" s="9"/>
-      <c r="E918" s="9"/>
-      <c r="F918" s="9"/>
-    </row>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="6"/>
-      <c r="B919" s="7"/>
-      <c r="C919" s="9"/>
-      <c r="D919" s="9"/>
-      <c r="E919" s="9"/>
-      <c r="F919" s="9"/>
-    </row>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="6"/>
-      <c r="B920" s="7"/>
-      <c r="C920" s="9"/>
-      <c r="D920" s="9"/>
-      <c r="E920" s="9"/>
-      <c r="F920" s="9"/>
-    </row>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="6"/>
-      <c r="B921" s="7"/>
-      <c r="C921" s="9"/>
-      <c r="D921" s="9"/>
-      <c r="E921" s="9"/>
-      <c r="F921" s="9"/>
-    </row>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="6"/>
-      <c r="B922" s="7"/>
-      <c r="C922" s="9"/>
-      <c r="D922" s="9"/>
-      <c r="E922" s="9"/>
-      <c r="F922" s="9"/>
-    </row>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="6"/>
-      <c r="B923" s="7"/>
-      <c r="C923" s="9"/>
-      <c r="D923" s="9"/>
-      <c r="E923" s="9"/>
-      <c r="F923" s="9"/>
-    </row>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="6"/>
-      <c r="B924" s="7"/>
-      <c r="C924" s="9"/>
-      <c r="D924" s="9"/>
-      <c r="E924" s="9"/>
-      <c r="F924" s="9"/>
-    </row>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="6"/>
-      <c r="B925" s="7"/>
-      <c r="C925" s="9"/>
-      <c r="D925" s="9"/>
-      <c r="E925" s="9"/>
-      <c r="F925" s="9"/>
-    </row>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="6"/>
-      <c r="B926" s="7"/>
-      <c r="C926" s="9"/>
-      <c r="D926" s="9"/>
-      <c r="E926" s="9"/>
-      <c r="F926" s="9"/>
-    </row>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="6"/>
-      <c r="B927" s="7"/>
-      <c r="C927" s="9"/>
-      <c r="D927" s="9"/>
-      <c r="E927" s="9"/>
-      <c r="F927" s="9"/>
-    </row>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="6"/>
-      <c r="B928" s="7"/>
-      <c r="C928" s="9"/>
-      <c r="D928" s="9"/>
-      <c r="E928" s="9"/>
-      <c r="F928" s="9"/>
-    </row>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="6"/>
-      <c r="B929" s="7"/>
-      <c r="C929" s="9"/>
-      <c r="D929" s="9"/>
-      <c r="E929" s="9"/>
-      <c r="F929" s="9"/>
-    </row>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="6"/>
-      <c r="B930" s="7"/>
-      <c r="C930" s="9"/>
-      <c r="D930" s="9"/>
-      <c r="E930" s="9"/>
-      <c r="F930" s="9"/>
-    </row>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="6"/>
-      <c r="B931" s="7"/>
-      <c r="C931" s="9"/>
-      <c r="D931" s="9"/>
-      <c r="E931" s="9"/>
-      <c r="F931" s="9"/>
-    </row>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="6"/>
-      <c r="B932" s="7"/>
-      <c r="C932" s="9"/>
-      <c r="D932" s="9"/>
-      <c r="E932" s="9"/>
-      <c r="F932" s="9"/>
-    </row>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="6"/>
-      <c r="B933" s="7"/>
-      <c r="C933" s="9"/>
-      <c r="D933" s="9"/>
-      <c r="E933" s="9"/>
-      <c r="F933" s="9"/>
-    </row>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="6"/>
-      <c r="B934" s="7"/>
-      <c r="C934" s="9"/>
-      <c r="D934" s="9"/>
-      <c r="E934" s="9"/>
-      <c r="F934" s="9"/>
-    </row>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="6"/>
-      <c r="B935" s="7"/>
-      <c r="C935" s="9"/>
-      <c r="D935" s="9"/>
-      <c r="E935" s="9"/>
-      <c r="F935" s="9"/>
-    </row>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="6"/>
-      <c r="B936" s="7"/>
-      <c r="C936" s="9"/>
-      <c r="D936" s="9"/>
-      <c r="E936" s="9"/>
-      <c r="F936" s="9"/>
-    </row>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="6"/>
-      <c r="B937" s="7"/>
-      <c r="C937" s="9"/>
-      <c r="D937" s="9"/>
-      <c r="E937" s="9"/>
-      <c r="F937" s="9"/>
-    </row>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="6"/>
-      <c r="B938" s="7"/>
-      <c r="C938" s="9"/>
-      <c r="D938" s="9"/>
-      <c r="E938" s="9"/>
-      <c r="F938" s="9"/>
-    </row>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="6"/>
-      <c r="B939" s="7"/>
-      <c r="C939" s="9"/>
-      <c r="D939" s="9"/>
-      <c r="E939" s="9"/>
-      <c r="F939" s="9"/>
-    </row>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="6"/>
-      <c r="B940" s="7"/>
-      <c r="C940" s="9"/>
-      <c r="D940" s="9"/>
-      <c r="E940" s="9"/>
-      <c r="F940" s="9"/>
-    </row>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="6"/>
-      <c r="B941" s="7"/>
-      <c r="C941" s="9"/>
-      <c r="D941" s="9"/>
-      <c r="E941" s="9"/>
-      <c r="F941" s="9"/>
-    </row>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="6"/>
-      <c r="B942" s="7"/>
-      <c r="C942" s="9"/>
-      <c r="D942" s="9"/>
-      <c r="E942" s="9"/>
-      <c r="F942" s="9"/>
-    </row>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="6"/>
-      <c r="B943" s="7"/>
-      <c r="C943" s="9"/>
-      <c r="D943" s="9"/>
-      <c r="E943" s="9"/>
-      <c r="F943" s="9"/>
-    </row>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="6"/>
-      <c r="B944" s="7"/>
-      <c r="C944" s="9"/>
-      <c r="D944" s="9"/>
-      <c r="E944" s="9"/>
-      <c r="F944" s="9"/>
-    </row>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="6"/>
-      <c r="B945" s="7"/>
-      <c r="C945" s="9"/>
-      <c r="D945" s="9"/>
-      <c r="E945" s="9"/>
-      <c r="F945" s="9"/>
-    </row>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="6"/>
-      <c r="B946" s="7"/>
-      <c r="C946" s="9"/>
-      <c r="D946" s="9"/>
-      <c r="E946" s="9"/>
-      <c r="F946" s="9"/>
-    </row>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="6"/>
-      <c r="B947" s="7"/>
-      <c r="C947" s="9"/>
-      <c r="D947" s="9"/>
-      <c r="E947" s="9"/>
-      <c r="F947" s="9"/>
-    </row>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="6"/>
-      <c r="B948" s="7"/>
-      <c r="C948" s="9"/>
-      <c r="D948" s="9"/>
-      <c r="E948" s="9"/>
-      <c r="F948" s="9"/>
-    </row>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="6"/>
-      <c r="B949" s="7"/>
-      <c r="C949" s="9"/>
-      <c r="D949" s="9"/>
-      <c r="E949" s="9"/>
-      <c r="F949" s="9"/>
-    </row>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="6"/>
-      <c r="B950" s="7"/>
-      <c r="C950" s="9"/>
-      <c r="D950" s="9"/>
-      <c r="E950" s="9"/>
-      <c r="F950" s="9"/>
-    </row>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="6"/>
-      <c r="B951" s="7"/>
-      <c r="C951" s="9"/>
-      <c r="D951" s="9"/>
-      <c r="E951" s="9"/>
-      <c r="F951" s="9"/>
-    </row>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="6"/>
-      <c r="B952" s="7"/>
-      <c r="C952" s="9"/>
-      <c r="D952" s="9"/>
-      <c r="E952" s="9"/>
-      <c r="F952" s="9"/>
-    </row>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="6"/>
-      <c r="B953" s="7"/>
-      <c r="C953" s="9"/>
-      <c r="D953" s="9"/>
-      <c r="E953" s="9"/>
-      <c r="F953" s="9"/>
-    </row>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="6"/>
-      <c r="B954" s="7"/>
-      <c r="C954" s="9"/>
-      <c r="D954" s="9"/>
-      <c r="E954" s="9"/>
-      <c r="F954" s="9"/>
-    </row>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="6"/>
-      <c r="B955" s="7"/>
-      <c r="C955" s="9"/>
-      <c r="D955" s="9"/>
-      <c r="E955" s="9"/>
-      <c r="F955" s="9"/>
-    </row>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="6"/>
-      <c r="B956" s="7"/>
-      <c r="C956" s="9"/>
-      <c r="D956" s="9"/>
-      <c r="E956" s="9"/>
-      <c r="F956" s="9"/>
-    </row>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="6"/>
-      <c r="B957" s="7"/>
-      <c r="C957" s="9"/>
-      <c r="D957" s="9"/>
-      <c r="E957" s="9"/>
-      <c r="F957" s="9"/>
-    </row>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="6"/>
-      <c r="B958" s="7"/>
-      <c r="C958" s="9"/>
-      <c r="D958" s="9"/>
-      <c r="E958" s="9"/>
-      <c r="F958" s="9"/>
-    </row>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="6"/>
-      <c r="B959" s="7"/>
-      <c r="C959" s="9"/>
-      <c r="D959" s="9"/>
-      <c r="E959" s="9"/>
-      <c r="F959" s="9"/>
-    </row>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="6"/>
-      <c r="B960" s="7"/>
-      <c r="C960" s="9"/>
-      <c r="D960" s="9"/>
-      <c r="E960" s="9"/>
-      <c r="F960" s="9"/>
-    </row>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="6"/>
-      <c r="B961" s="7"/>
-      <c r="C961" s="9"/>
-      <c r="D961" s="9"/>
-      <c r="E961" s="9"/>
-      <c r="F961" s="9"/>
-    </row>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="6"/>
-      <c r="B962" s="7"/>
-      <c r="C962" s="9"/>
-      <c r="D962" s="9"/>
-      <c r="E962" s="9"/>
-      <c r="F962" s="9"/>
-    </row>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="6"/>
-      <c r="B963" s="7"/>
-      <c r="C963" s="9"/>
-      <c r="D963" s="9"/>
-      <c r="E963" s="9"/>
-      <c r="F963" s="9"/>
-    </row>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="6"/>
-      <c r="B964" s="7"/>
-      <c r="C964" s="9"/>
-      <c r="D964" s="9"/>
-      <c r="E964" s="9"/>
-      <c r="F964" s="9"/>
-    </row>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="6"/>
-      <c r="B965" s="7"/>
-      <c r="C965" s="9"/>
-      <c r="D965" s="9"/>
-      <c r="E965" s="9"/>
-      <c r="F965" s="9"/>
-    </row>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="6"/>
-      <c r="B966" s="7"/>
-      <c r="C966" s="9"/>
-      <c r="D966" s="9"/>
-      <c r="E966" s="9"/>
-      <c r="F966" s="9"/>
-    </row>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="6"/>
-      <c r="B967" s="7"/>
-      <c r="C967" s="9"/>
-      <c r="D967" s="9"/>
-      <c r="E967" s="9"/>
-      <c r="F967" s="9"/>
-    </row>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="6"/>
-      <c r="B968" s="7"/>
-      <c r="C968" s="9"/>
-      <c r="D968" s="9"/>
-      <c r="E968" s="9"/>
-      <c r="F968" s="9"/>
-    </row>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="6"/>
-      <c r="B969" s="7"/>
-      <c r="C969" s="9"/>
-      <c r="D969" s="9"/>
-      <c r="E969" s="9"/>
-      <c r="F969" s="9"/>
-    </row>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="6"/>
-      <c r="B970" s="7"/>
-      <c r="C970" s="9"/>
-      <c r="D970" s="9"/>
-      <c r="E970" s="9"/>
-      <c r="F970" s="9"/>
-    </row>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="6"/>
-      <c r="B971" s="7"/>
-      <c r="C971" s="9"/>
-      <c r="D971" s="9"/>
-      <c r="E971" s="9"/>
-      <c r="F971" s="9"/>
-    </row>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="6"/>
-      <c r="B972" s="7"/>
-      <c r="C972" s="9"/>
-      <c r="D972" s="9"/>
-      <c r="E972" s="9"/>
-      <c r="F972" s="9"/>
-    </row>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="6"/>
-      <c r="B973" s="7"/>
-      <c r="C973" s="9"/>
-      <c r="D973" s="9"/>
-      <c r="E973" s="9"/>
-      <c r="F973" s="9"/>
-    </row>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="6"/>
-      <c r="B974" s="7"/>
-      <c r="C974" s="9"/>
-      <c r="D974" s="9"/>
-      <c r="E974" s="9"/>
-      <c r="F974" s="9"/>
-    </row>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="6"/>
-      <c r="B975" s="7"/>
-      <c r="C975" s="9"/>
-      <c r="D975" s="9"/>
-      <c r="E975" s="9"/>
-      <c r="F975" s="9"/>
-    </row>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="6"/>
-      <c r="B976" s="7"/>
-      <c r="C976" s="9"/>
-      <c r="D976" s="9"/>
-      <c r="E976" s="9"/>
-      <c r="F976" s="9"/>
-    </row>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="6"/>
-      <c r="B977" s="7"/>
-      <c r="C977" s="9"/>
-      <c r="D977" s="9"/>
-      <c r="E977" s="9"/>
-      <c r="F977" s="9"/>
-    </row>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="6"/>
-      <c r="B978" s="7"/>
-      <c r="C978" s="9"/>
-      <c r="D978" s="9"/>
-      <c r="E978" s="9"/>
-      <c r="F978" s="9"/>
-    </row>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="6"/>
-      <c r="B979" s="7"/>
-      <c r="C979" s="9"/>
-      <c r="D979" s="9"/>
-      <c r="E979" s="9"/>
-      <c r="F979" s="9"/>
-    </row>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="6"/>
-      <c r="B980" s="7"/>
-      <c r="C980" s="9"/>
-      <c r="D980" s="9"/>
-      <c r="E980" s="9"/>
-      <c r="F980" s="9"/>
-    </row>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="6"/>
-      <c r="B981" s="7"/>
-      <c r="C981" s="9"/>
-      <c r="D981" s="9"/>
-      <c r="E981" s="9"/>
-      <c r="F981" s="9"/>
-    </row>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="6"/>
-      <c r="B982" s="7"/>
-      <c r="C982" s="9"/>
-      <c r="D982" s="9"/>
-      <c r="E982" s="9"/>
-      <c r="F982" s="9"/>
-    </row>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="6"/>
-      <c r="B983" s="7"/>
-      <c r="C983" s="9"/>
-      <c r="D983" s="9"/>
-      <c r="E983" s="9"/>
-      <c r="F983" s="9"/>
-    </row>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="6"/>
-      <c r="B984" s="7"/>
-      <c r="C984" s="9"/>
-      <c r="D984" s="9"/>
-      <c r="E984" s="9"/>
-      <c r="F984" s="9"/>
-    </row>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="6"/>
-      <c r="B985" s="7"/>
-      <c r="C985" s="9"/>
-      <c r="D985" s="9"/>
-      <c r="E985" s="9"/>
-      <c r="F985" s="9"/>
-    </row>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="6"/>
-      <c r="B986" s="7"/>
-      <c r="C986" s="9"/>
-      <c r="D986" s="9"/>
-      <c r="E986" s="9"/>
-      <c r="F986" s="9"/>
-    </row>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="6"/>
-      <c r="B987" s="7"/>
-      <c r="C987" s="9"/>
-      <c r="D987" s="9"/>
-      <c r="E987" s="9"/>
-      <c r="F987" s="9"/>
-    </row>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="6"/>
-      <c r="B988" s="7"/>
-      <c r="C988" s="9"/>
-      <c r="D988" s="9"/>
-      <c r="E988" s="9"/>
-      <c r="F988" s="9"/>
-    </row>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="6"/>
-      <c r="B989" s="7"/>
-      <c r="C989" s="9"/>
-      <c r="D989" s="9"/>
-      <c r="E989" s="9"/>
-      <c r="F989" s="9"/>
-    </row>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="6"/>
-      <c r="B990" s="7"/>
-      <c r="C990" s="9"/>
-      <c r="D990" s="9"/>
-      <c r="E990" s="9"/>
-      <c r="F990" s="9"/>
-    </row>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="6"/>
-      <c r="B991" s="7"/>
-      <c r="C991" s="9"/>
-      <c r="D991" s="9"/>
-      <c r="E991" s="9"/>
-      <c r="F991" s="9"/>
-    </row>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="6"/>
-      <c r="B992" s="7"/>
-      <c r="C992" s="9"/>
-      <c r="D992" s="9"/>
-      <c r="E992" s="9"/>
-      <c r="F992" s="9"/>
-    </row>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="6"/>
-      <c r="B993" s="7"/>
-      <c r="C993" s="9"/>
-      <c r="D993" s="9"/>
-      <c r="E993" s="9"/>
-      <c r="F993" s="9"/>
-    </row>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="6"/>
-      <c r="B994" s="7"/>
-      <c r="C994" s="9"/>
-      <c r="D994" s="9"/>
-      <c r="E994" s="9"/>
-      <c r="F994" s="9"/>
-    </row>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="6"/>
-      <c r="B995" s="7"/>
-      <c r="C995" s="9"/>
-      <c r="D995" s="9"/>
-      <c r="E995" s="9"/>
-      <c r="F995" s="9"/>
-    </row>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="6"/>
-      <c r="B996" s="7"/>
-      <c r="C996" s="9"/>
-      <c r="D996" s="9"/>
-      <c r="E996" s="9"/>
-      <c r="F996" s="9"/>
-    </row>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="6"/>
-      <c r="B997" s="7"/>
-      <c r="C997" s="9"/>
-      <c r="D997" s="9"/>
-      <c r="E997" s="9"/>
-      <c r="F997" s="9"/>
-    </row>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="6"/>
-      <c r="B998" s="7"/>
-      <c r="C998" s="9"/>
-      <c r="D998" s="9"/>
-      <c r="E998" s="9"/>
-      <c r="F998" s="9"/>
-    </row>
-    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="6"/>
-      <c r="B999" s="7"/>
-      <c r="C999" s="9"/>
-      <c r="D999" s="9"/>
-      <c r="E999" s="9"/>
-      <c r="F999" s="9"/>
-    </row>
-    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="6"/>
-      <c r="B1000" s="7"/>
-      <c r="C1000" s="9"/>
-      <c r="D1000" s="9"/>
-      <c r="E1000" s="9"/>
-      <c r="F1000" s="9"/>
-    </row>
-    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="6"/>
-      <c r="B1001" s="7"/>
-      <c r="C1001" s="9"/>
-      <c r="D1001" s="9"/>
-      <c r="E1001" s="9"/>
-      <c r="F1001" s="9"/>
-    </row>
-    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1002" s="6"/>
-      <c r="B1002" s="7"/>
-      <c r="C1002" s="9"/>
-      <c r="D1002" s="9"/>
-      <c r="E1002" s="9"/>
-      <c r="F1002" s="9"/>
-    </row>
-    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1003" s="6"/>
-      <c r="B1003" s="7"/>
-      <c r="C1003" s="9"/>
-      <c r="D1003" s="9"/>
-      <c r="E1003" s="9"/>
-      <c r="F1003" s="9"/>
-    </row>
-    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1004" s="6"/>
-      <c r="B1004" s="7"/>
-      <c r="C1004" s="9"/>
-      <c r="D1004" s="9"/>
-      <c r="E1004" s="9"/>
-      <c r="F1004" s="9"/>
-    </row>
-    <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1005" s="6"/>
-      <c r="B1005" s="7"/>
-      <c r="C1005" s="9"/>
-      <c r="D1005" s="9"/>
-      <c r="E1005" s="9"/>
-      <c r="F1005" s="9"/>
-    </row>
-    <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1006" s="6"/>
-      <c r="B1006" s="7"/>
-      <c r="C1006" s="9"/>
-      <c r="D1006" s="9"/>
-      <c r="E1006" s="9"/>
-      <c r="F1006" s="9"/>
-    </row>
-    <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1007" s="6"/>
-      <c r="B1007" s="7"/>
-      <c r="C1007" s="9"/>
-      <c r="D1007" s="9"/>
-      <c r="E1007" s="9"/>
-      <c r="F1007" s="9"/>
-    </row>
-    <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1008" s="6"/>
-      <c r="B1008" s="7"/>
-      <c r="C1008" s="9"/>
-      <c r="D1008" s="9"/>
-      <c r="E1008" s="9"/>
-      <c r="F1008" s="9"/>
-    </row>
-    <row r="1009" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1009" s="6"/>
-      <c r="B1009" s="7"/>
-      <c r="C1009" s="9"/>
-      <c r="D1009" s="9"/>
-      <c r="E1009" s="9"/>
-      <c r="F1009" s="9"/>
-    </row>
-    <row r="1010" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1010" s="6"/>
-      <c r="B1010" s="7"/>
-      <c r="C1010" s="9"/>
-      <c r="D1010" s="9"/>
-      <c r="E1010" s="9"/>
-      <c r="F1010" s="9"/>
-    </row>
-    <row r="1011" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1011" s="6"/>
-      <c r="B1011" s="7"/>
-      <c r="C1011" s="9"/>
-      <c r="D1011" s="9"/>
-      <c r="E1011" s="9"/>
-      <c r="F1011" s="9"/>
-    </row>
-    <row r="1012" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1012" s="6"/>
-      <c r="B1012" s="7"/>
-      <c r="C1012" s="9"/>
-      <c r="D1012" s="9"/>
-      <c r="E1012" s="9"/>
-      <c r="F1012" s="9"/>
-    </row>
-    <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1013" s="6"/>
-      <c r="B1013" s="7"/>
-      <c r="C1013" s="9"/>
-      <c r="D1013" s="9"/>
-      <c r="E1013" s="9"/>
-      <c r="F1013" s="9"/>
-    </row>
-    <row r="1014" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1014" s="6"/>
-      <c r="B1014" s="7"/>
-      <c r="C1014" s="9"/>
-      <c r="D1014" s="9"/>
-      <c r="E1014" s="9"/>
-      <c r="F1014" s="9"/>
-    </row>
-    <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1015" s="6"/>
-      <c r="B1015" s="7"/>
-      <c r="C1015" s="9"/>
-      <c r="D1015" s="9"/>
-      <c r="E1015" s="9"/>
-      <c r="F1015" s="9"/>
-    </row>
-    <row r="1016" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1016" s="6"/>
-      <c r="B1016" s="7"/>
-      <c r="C1016" s="9"/>
-      <c r="D1016" s="9"/>
-      <c r="E1016" s="9"/>
-      <c r="F1016" s="9"/>
-    </row>
-    <row r="1017" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1017" s="6"/>
-      <c r="B1017" s="7"/>
-      <c r="C1017" s="9"/>
-      <c r="D1017" s="9"/>
-      <c r="E1017" s="9"/>
-      <c r="F1017" s="9"/>
-    </row>
-    <row r="1018" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1018" s="6"/>
-      <c r="B1018" s="7"/>
-      <c r="C1018" s="9"/>
-      <c r="D1018" s="9"/>
-      <c r="E1018" s="9"/>
-      <c r="F1018" s="9"/>
-    </row>
-    <row r="1019" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1019" s="6"/>
-      <c r="B1019" s="7"/>
-      <c r="C1019" s="9"/>
-      <c r="D1019" s="9"/>
-      <c r="E1019" s="9"/>
-      <c r="F1019" s="9"/>
-    </row>
-    <row r="1020" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1020" s="6"/>
-      <c r="B1020" s="7"/>
-      <c r="C1020" s="9"/>
-      <c r="D1020" s="9"/>
-      <c r="E1020" s="9"/>
-      <c r="F1020" s="9"/>
-    </row>
-    <row r="1021" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1021" s="6"/>
-      <c r="B1021" s="7"/>
-      <c r="C1021" s="9"/>
-      <c r="D1021" s="9"/>
-      <c r="E1021" s="9"/>
-      <c r="F1021" s="9"/>
-    </row>
-    <row r="1022" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1022" s="6"/>
-      <c r="B1022" s="7"/>
-      <c r="C1022" s="9"/>
-      <c r="D1022" s="9"/>
-      <c r="E1022" s="9"/>
-      <c r="F1022" s="9"/>
-    </row>
-    <row r="1023" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1023" s="6"/>
-      <c r="B1023" s="7"/>
-      <c r="C1023" s="9"/>
-      <c r="D1023" s="9"/>
-      <c r="E1023" s="9"/>
-      <c r="F1023" s="9"/>
-    </row>
-    <row r="1024" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1024" s="6"/>
-      <c r="B1024" s="7"/>
-      <c r="C1024" s="9"/>
-      <c r="D1024" s="9"/>
-      <c r="E1024" s="9"/>
-      <c r="F1024" s="9"/>
-    </row>
-    <row r="1025" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1025" s="6"/>
-      <c r="B1025" s="7"/>
-      <c r="C1025" s="9"/>
-      <c r="D1025" s="9"/>
-      <c r="E1025" s="9"/>
-      <c r="F1025" s="9"/>
-    </row>
-    <row r="1026" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1026" s="6"/>
-      <c r="B1026" s="7"/>
-      <c r="C1026" s="9"/>
-      <c r="D1026" s="9"/>
-      <c r="E1026" s="9"/>
-      <c r="F1026" s="9"/>
-    </row>
-    <row r="1027" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1027" s="6"/>
-      <c r="B1027" s="7"/>
-      <c r="C1027" s="9"/>
-      <c r="D1027" s="9"/>
-      <c r="E1027" s="9"/>
-      <c r="F1027" s="9"/>
-    </row>
-    <row r="1028" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1028" s="6"/>
-      <c r="B1028" s="7"/>
-      <c r="C1028" s="9"/>
-      <c r="D1028" s="9"/>
-      <c r="E1028" s="9"/>
-      <c r="F1028" s="9"/>
-    </row>
-    <row r="1029" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1029" s="6"/>
-      <c r="B1029" s="7"/>
-      <c r="C1029" s="9"/>
-      <c r="D1029" s="9"/>
-      <c r="E1029" s="9"/>
-      <c r="F1029" s="9"/>
-    </row>
-    <row r="1030" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1030" s="6"/>
-      <c r="B1030" s="7"/>
-      <c r="C1030" s="9"/>
-      <c r="D1030" s="9"/>
-      <c r="E1030" s="9"/>
-      <c r="F1030" s="9"/>
-    </row>
-    <row r="1031" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1031" s="6"/>
-      <c r="B1031" s="7"/>
-      <c r="C1031" s="9"/>
-      <c r="D1031" s="9"/>
-      <c r="E1031" s="9"/>
-      <c r="F1031" s="9"/>
-    </row>
-    <row r="1032" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1032" s="6"/>
-      <c r="B1032" s="7"/>
-      <c r="C1032" s="9"/>
-      <c r="D1032" s="9"/>
-      <c r="E1032" s="9"/>
-      <c r="F1032" s="9"/>
-    </row>
-    <row r="1033" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1033" s="6"/>
-      <c r="B1033" s="7"/>
-      <c r="C1033" s="9"/>
-      <c r="D1033" s="9"/>
-      <c r="E1033" s="9"/>
-      <c r="F1033" s="9"/>
-    </row>
-    <row r="1034" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1034" s="6"/>
-      <c r="B1034" s="7"/>
-      <c r="C1034" s="9"/>
-      <c r="D1034" s="9"/>
-      <c r="E1034" s="9"/>
-      <c r="F1034" s="9"/>
-    </row>
-    <row r="1035" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1035" s="6"/>
-      <c r="B1035" s="7"/>
-      <c r="C1035" s="9"/>
-      <c r="D1035" s="9"/>
-      <c r="E1035" s="9"/>
-      <c r="F1035" s="9"/>
-    </row>
-    <row r="1036" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1036" s="6"/>
-      <c r="B1036" s="7"/>
-      <c r="C1036" s="9"/>
-      <c r="D1036" s="9"/>
-      <c r="E1036" s="9"/>
-      <c r="F1036" s="9"/>
-    </row>
-    <row r="1037" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1037" s="6"/>
-      <c r="B1037" s="7"/>
-      <c r="C1037" s="9"/>
-      <c r="D1037" s="9"/>
-      <c r="E1037" s="9"/>
-      <c r="F1037" s="9"/>
-    </row>
-    <row r="1038" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1038" s="6"/>
-      <c r="B1038" s="7"/>
-      <c r="C1038" s="9"/>
-      <c r="D1038" s="9"/>
-      <c r="E1038" s="9"/>
-      <c r="F1038" s="9"/>
-    </row>
-    <row r="1039" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1039" s="6"/>
-      <c r="B1039" s="7"/>
-      <c r="C1039" s="9"/>
-      <c r="D1039" s="9"/>
-      <c r="E1039" s="9"/>
-      <c r="F1039" s="9"/>
-    </row>
-    <row r="1040" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1040" s="6"/>
-      <c r="B1040" s="7"/>
-      <c r="C1040" s="9"/>
-      <c r="D1040" s="9"/>
-      <c r="E1040" s="9"/>
-      <c r="F1040" s="9"/>
-    </row>
-    <row r="1041" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1041" s="6"/>
-      <c r="B1041" s="7"/>
-      <c r="C1041" s="9"/>
-      <c r="D1041" s="9"/>
-      <c r="E1041" s="9"/>
-      <c r="F1041" s="9"/>
-    </row>
-    <row r="1042" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1042" s="6"/>
-      <c r="B1042" s="7"/>
-      <c r="C1042" s="9"/>
-      <c r="D1042" s="9"/>
-      <c r="E1042" s="9"/>
-      <c r="F1042" s="9"/>
-    </row>
-    <row r="1043" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1043" s="6"/>
-      <c r="B1043" s="7"/>
-      <c r="C1043" s="9"/>
-      <c r="D1043" s="9"/>
-      <c r="E1043" s="9"/>
-      <c r="F1043" s="9"/>
-    </row>
-    <row r="1044" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1044" s="6"/>
-      <c r="B1044" s="7"/>
-      <c r="C1044" s="9"/>
-      <c r="D1044" s="9"/>
-      <c r="E1044" s="9"/>
-      <c r="F1044" s="9"/>
-    </row>
-    <row r="1045" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1045" s="6"/>
-      <c r="B1045" s="7"/>
-      <c r="C1045" s="9"/>
-      <c r="D1045" s="9"/>
-      <c r="E1045" s="9"/>
-      <c r="F1045" s="9"/>
-    </row>
-    <row r="1046" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1046" s="6"/>
-      <c r="B1046" s="7"/>
-      <c r="C1046" s="9"/>
-      <c r="D1046" s="9"/>
-      <c r="E1046" s="9"/>
-      <c r="F1046" s="9"/>
-    </row>
-    <row r="1047" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1047" s="6"/>
-      <c r="B1047" s="7"/>
-      <c r="C1047" s="9"/>
-      <c r="D1047" s="9"/>
-      <c r="E1047" s="9"/>
-      <c r="F1047" s="9"/>
-    </row>
-    <row r="1048" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1048" s="6"/>
-      <c r="B1048" s="7"/>
-      <c r="C1048" s="9"/>
-      <c r="D1048" s="9"/>
-      <c r="E1048" s="9"/>
-      <c r="F1048" s="9"/>
-    </row>
-    <row r="1049" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1049" s="6"/>
-      <c r="B1049" s="7"/>
-      <c r="C1049" s="9"/>
-      <c r="D1049" s="9"/>
-      <c r="E1049" s="9"/>
-      <c r="F1049" s="9"/>
-    </row>
-    <row r="1050" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1050" s="6"/>
-      <c r="B1050" s="7"/>
-      <c r="C1050" s="9"/>
-      <c r="D1050" s="9"/>
-      <c r="E1050" s="9"/>
-      <c r="F1050" s="9"/>
-    </row>
-    <row r="1051" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1051" s="6"/>
-      <c r="B1051" s="7"/>
-      <c r="C1051" s="9"/>
-      <c r="D1051" s="9"/>
-      <c r="E1051" s="9"/>
-      <c r="F1051" s="9"/>
-    </row>
-    <row r="1052" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1052" s="6"/>
-      <c r="B1052" s="7"/>
-      <c r="C1052" s="9"/>
-      <c r="D1052" s="9"/>
-      <c r="E1052" s="9"/>
-      <c r="F1052" s="9"/>
-    </row>
-    <row r="1053" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1053" s="6"/>
-      <c r="B1053" s="7"/>
-      <c r="C1053" s="9"/>
-      <c r="D1053" s="9"/>
-      <c r="E1053" s="9"/>
-      <c r="F1053" s="9"/>
-    </row>
-    <row r="1054" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1054" s="6"/>
-      <c r="B1054" s="7"/>
-      <c r="C1054" s="9"/>
-      <c r="D1054" s="9"/>
-      <c r="E1054" s="9"/>
-      <c r="F1054" s="9"/>
-    </row>
-    <row r="1055" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1055" s="6"/>
-      <c r="B1055" s="7"/>
-      <c r="C1055" s="9"/>
-      <c r="D1055" s="9"/>
-      <c r="E1055" s="9"/>
-      <c r="F1055" s="9"/>
-    </row>
-    <row r="1056" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1056" s="6"/>
-      <c r="B1056" s="7"/>
-      <c r="C1056" s="9"/>
-      <c r="D1056" s="9"/>
-      <c r="E1056" s="9"/>
-      <c r="F1056" s="9"/>
-    </row>
-    <row r="1057" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1057" s="6"/>
-      <c r="B1057" s="7"/>
-      <c r="C1057" s="9"/>
-      <c r="D1057" s="9"/>
-      <c r="E1057" s="9"/>
-      <c r="F1057" s="9"/>
-    </row>
-    <row r="1058" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1058" s="6"/>
-      <c r="B1058" s="7"/>
-      <c r="C1058" s="9"/>
-      <c r="D1058" s="9"/>
-      <c r="E1058" s="9"/>
-      <c r="F1058" s="9"/>
-    </row>
-    <row r="1059" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1059" s="6"/>
-      <c r="B1059" s="7"/>
-      <c r="C1059" s="9"/>
-      <c r="D1059" s="9"/>
-      <c r="E1059" s="9"/>
-      <c r="F1059" s="9"/>
-    </row>
-    <row r="1060" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1060" s="6"/>
-      <c r="B1060" s="7"/>
-      <c r="C1060" s="9"/>
-      <c r="D1060" s="9"/>
-      <c r="E1060" s="9"/>
-      <c r="F1060" s="9"/>
-    </row>
-    <row r="1061" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1061" s="6"/>
-      <c r="B1061" s="7"/>
-      <c r="C1061" s="9"/>
-      <c r="D1061" s="9"/>
-      <c r="E1061" s="9"/>
-      <c r="F1061" s="9"/>
-    </row>
-    <row r="1062" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1062" s="6"/>
-      <c r="B1062" s="7"/>
-      <c r="C1062" s="9"/>
-      <c r="D1062" s="9"/>
-      <c r="E1062" s="9"/>
-      <c r="F1062" s="9"/>
-    </row>
-    <row r="1063" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1063" s="6"/>
-      <c r="B1063" s="7"/>
-      <c r="C1063" s="9"/>
-      <c r="D1063" s="9"/>
-      <c r="E1063" s="9"/>
-      <c r="F1063" s="9"/>
-    </row>
-    <row r="1064" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1064" s="6"/>
-      <c r="B1064" s="7"/>
-      <c r="C1064" s="9"/>
-      <c r="D1064" s="9"/>
-      <c r="E1064" s="9"/>
-      <c r="F1064" s="9"/>
-    </row>
-    <row r="1065" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1065" s="6"/>
-      <c r="B1065" s="7"/>
-      <c r="C1065" s="9"/>
-      <c r="D1065" s="9"/>
-      <c r="E1065" s="9"/>
-      <c r="F1065" s="9"/>
-    </row>
-    <row r="1066" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1066" s="6"/>
-      <c r="B1066" s="7"/>
-      <c r="C1066" s="9"/>
-      <c r="D1066" s="9"/>
-      <c r="E1066" s="9"/>
-      <c r="F1066" s="9"/>
-    </row>
-    <row r="1067" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1067" s="6"/>
-      <c r="B1067" s="7"/>
-      <c r="C1067" s="9"/>
-      <c r="D1067" s="9"/>
-      <c r="E1067" s="9"/>
-      <c r="F1067" s="9"/>
-    </row>
-    <row r="1068" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1068" s="6"/>
-      <c r="B1068" s="7"/>
-      <c r="C1068" s="9"/>
-      <c r="D1068" s="9"/>
-      <c r="E1068" s="9"/>
-      <c r="F1068" s="9"/>
-    </row>
-    <row r="1069" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1069" s="6"/>
-      <c r="B1069" s="7"/>
-      <c r="C1069" s="9"/>
-      <c r="D1069" s="9"/>
-      <c r="E1069" s="9"/>
-      <c r="F1069" s="9"/>
-    </row>
-    <row r="1070" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1070" s="6"/>
-      <c r="B1070" s="7"/>
-      <c r="C1070" s="9"/>
-      <c r="D1070" s="9"/>
-      <c r="E1070" s="9"/>
-      <c r="F1070" s="9"/>
-    </row>
-    <row r="1071" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1071" s="6"/>
-      <c r="B1071" s="7"/>
-      <c r="C1071" s="9"/>
-      <c r="D1071" s="9"/>
-      <c r="E1071" s="9"/>
-      <c r="F1071" s="9"/>
-    </row>
-    <row r="1072" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1072" s="6"/>
-      <c r="B1072" s="7"/>
-      <c r="C1072" s="9"/>
-      <c r="D1072" s="9"/>
-      <c r="E1072" s="9"/>
-      <c r="F1072" s="9"/>
-    </row>
-    <row r="1073" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1073" s="6"/>
-      <c r="B1073" s="7"/>
-      <c r="C1073" s="9"/>
-      <c r="D1073" s="9"/>
-      <c r="E1073" s="9"/>
-      <c r="F1073" s="9"/>
-    </row>
-    <row r="1074" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1074" s="6"/>
-      <c r="B1074" s="7"/>
-      <c r="C1074" s="9"/>
-      <c r="D1074" s="9"/>
-      <c r="E1074" s="9"/>
-      <c r="F1074" s="9"/>
-    </row>
-    <row r="1075" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1075" s="6"/>
-      <c r="B1075" s="7"/>
-      <c r="C1075" s="9"/>
-      <c r="D1075" s="9"/>
-      <c r="E1075" s="9"/>
-      <c r="F1075" s="9"/>
-    </row>
-    <row r="1076" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1076" s="6"/>
-      <c r="B1076" s="7"/>
-      <c r="C1076" s="9"/>
-      <c r="D1076" s="9"/>
-      <c r="E1076" s="9"/>
-      <c r="F1076" s="9"/>
-    </row>
-    <row r="1077" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1077" s="6"/>
-      <c r="B1077" s="7"/>
-      <c r="C1077" s="9"/>
-      <c r="D1077" s="9"/>
-      <c r="E1077" s="9"/>
-      <c r="F1077" s="9"/>
-    </row>
-    <row r="1078" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1078" s="6"/>
-      <c r="B1078" s="7"/>
-      <c r="C1078" s="9"/>
-      <c r="D1078" s="9"/>
-      <c r="E1078" s="9"/>
-      <c r="F1078" s="9"/>
-    </row>
-    <row r="1079" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1079" s="6"/>
-      <c r="B1079" s="7"/>
-      <c r="C1079" s="9"/>
-      <c r="D1079" s="9"/>
-      <c r="E1079" s="9"/>
-      <c r="F1079" s="9"/>
-    </row>
-    <row r="1080" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1080" s="6"/>
-      <c r="B1080" s="7"/>
-      <c r="C1080" s="9"/>
-      <c r="D1080" s="9"/>
-      <c r="E1080" s="9"/>
-      <c r="F1080" s="9"/>
-    </row>
-    <row r="1081" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1081" s="6"/>
-      <c r="B1081" s="7"/>
-      <c r="C1081" s="9"/>
-      <c r="D1081" s="9"/>
-      <c r="E1081" s="9"/>
-      <c r="F1081" s="9"/>
-    </row>
-    <row r="1082" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1082" s="6"/>
-      <c r="B1082" s="7"/>
-      <c r="C1082" s="9"/>
-      <c r="D1082" s="9"/>
-      <c r="E1082" s="9"/>
-      <c r="F1082" s="9"/>
-    </row>
-    <row r="1083" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1083" s="6"/>
-      <c r="B1083" s="7"/>
-      <c r="C1083" s="9"/>
-      <c r="D1083" s="9"/>
-      <c r="E1083" s="9"/>
-      <c r="F1083" s="9"/>
-    </row>
-    <row r="1084" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1084" s="6"/>
-      <c r="B1084" s="7"/>
-      <c r="C1084" s="9"/>
-      <c r="D1084" s="9"/>
-      <c r="E1084" s="9"/>
-      <c r="F1084" s="9"/>
-    </row>
-    <row r="1085" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1085" s="6"/>
-      <c r="B1085" s="7"/>
-      <c r="C1085" s="9"/>
-      <c r="D1085" s="9"/>
-      <c r="E1085" s="9"/>
-      <c r="F1085" s="9"/>
-    </row>
-    <row r="1086" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1086" s="6"/>
-      <c r="B1086" s="7"/>
-      <c r="C1086" s="9"/>
-      <c r="D1086" s="9"/>
-      <c r="E1086" s="9"/>
-      <c r="F1086" s="9"/>
-    </row>
-    <row r="1087" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1087" s="6"/>
-      <c r="B1087" s="7"/>
-      <c r="C1087" s="9"/>
-      <c r="D1087" s="9"/>
-      <c r="E1087" s="9"/>
-      <c r="F1087" s="9"/>
-    </row>
-    <row r="1088" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1088" s="6"/>
-      <c r="B1088" s="7"/>
-      <c r="C1088" s="9"/>
-      <c r="D1088" s="9"/>
-      <c r="E1088" s="9"/>
-      <c r="F1088" s="9"/>
-    </row>
-    <row r="1089" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1089" s="6"/>
-      <c r="B1089" s="7"/>
-      <c r="C1089" s="9"/>
-      <c r="D1089" s="9"/>
-      <c r="E1089" s="9"/>
-      <c r="F1089" s="9"/>
-    </row>
-    <row r="1090" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1090" s="6"/>
-      <c r="B1090" s="7"/>
-      <c r="C1090" s="9"/>
-      <c r="D1090" s="9"/>
-      <c r="E1090" s="9"/>
-      <c r="F1090" s="9"/>
-    </row>
-    <row r="1091" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1091" s="6"/>
-      <c r="B1091" s="7"/>
-      <c r="C1091" s="9"/>
-      <c r="D1091" s="9"/>
-      <c r="E1091" s="9"/>
-      <c r="F1091" s="9"/>
-    </row>
-    <row r="1092" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1092" s="6"/>
-      <c r="B1092" s="7"/>
-      <c r="C1092" s="9"/>
-      <c r="D1092" s="9"/>
-      <c r="E1092" s="9"/>
-      <c r="F1092" s="9"/>
-    </row>
-    <row r="1093" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1093" s="6"/>
-      <c r="B1093" s="7"/>
-      <c r="C1093" s="9"/>
-      <c r="D1093" s="9"/>
-      <c r="E1093" s="9"/>
-      <c r="F1093" s="9"/>
-    </row>
-    <row r="1094" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1094" s="6"/>
-      <c r="B1094" s="7"/>
-      <c r="C1094" s="9"/>
-      <c r="D1094" s="9"/>
-      <c r="E1094" s="9"/>
-      <c r="F1094" s="9"/>
-    </row>
-    <row r="1095" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1095" s="6"/>
-      <c r="B1095" s="7"/>
-      <c r="C1095" s="9"/>
-      <c r="D1095" s="9"/>
-      <c r="E1095" s="9"/>
-      <c r="F1095" s="9"/>
-    </row>
-    <row r="1096" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1096" s="6"/>
-      <c r="B1096" s="7"/>
-      <c r="C1096" s="9"/>
-      <c r="D1096" s="9"/>
-      <c r="E1096" s="9"/>
-      <c r="F1096" s="9"/>
-    </row>
-    <row r="1097" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1097" s="6"/>
-      <c r="B1097" s="7"/>
-      <c r="C1097" s="9"/>
-      <c r="D1097" s="9"/>
-      <c r="E1097" s="9"/>
-      <c r="F1097" s="9"/>
-    </row>
-    <row r="1098" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1098" s="6"/>
-      <c r="B1098" s="7"/>
-      <c r="C1098" s="9"/>
-      <c r="D1098" s="9"/>
-      <c r="E1098" s="9"/>
-      <c r="F1098" s="9"/>
-    </row>
+    <row r="1047930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
